--- a/Tire Data.xlsx
+++ b/Tire Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarora\Documents\Local\R129\Design Calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarora\Documents\Local\Vehicle Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1A35C-381D-4D1B-8EA0-D57E0ECBEBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9815F6FE-A854-4B5F-97D5-2B77E26EB9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D56AA34-E0AD-4960-BC84-92AC20183887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6D56AA34-E0AD-4960-BC84-92AC20183887}"/>
   </bookViews>
   <sheets>
     <sheet name="MRF 135 70 R12 69S" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="44">
   <si>
     <t>SLIP ANGLE (Degree)</t>
   </si>
@@ -169,6 +169,9 @@
   <si>
     <t>A.P.: 50PSI</t>
   </si>
+  <si>
+    <t>Fy/Fz</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +211,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,6 +236,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -248,19 +249,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -596,35 +593,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B27EACF-5D0B-48F8-AEBB-B8E3FBA30728}">
-  <dimension ref="B2:P115"/>
+  <dimension ref="B2:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
@@ -633,28 +630,28 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
@@ -699,38 +696,38 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1387,1409 +1384,1474 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <f>D8/C8</f>
-        <v>6.4279789881116949E-3</v>
+        <f>C19/D21/9.8</f>
+        <v>0.86926530612244879</v>
       </c>
       <c r="D21">
         <f>D4</f>
         <v>125</v>
       </c>
       <c r="E21">
-        <f>F8/E8</f>
-        <v>1.3799825578412762E-2</v>
+        <f>E19/F21/9.8</f>
+        <v>0.86251895043731763</v>
       </c>
       <c r="F21">
-        <f>F4</f>
+        <f t="shared" ref="E21:P21" si="0">F4</f>
         <v>175</v>
       </c>
       <c r="G21">
-        <f>H8/G8</f>
-        <v>1.8545747758857846E-2</v>
+        <f>G19/H21/9.8</f>
+        <v>0.82470408163265307</v>
       </c>
       <c r="H21">
-        <f>H4</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="I21">
-        <f>J8/I8</f>
-        <v>2.0164368796874301E-2</v>
+        <f>I19/J21/9.8</f>
+        <v>0.78590476190476188</v>
       </c>
       <c r="J21">
-        <f>J4</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="K21">
-        <f>L8/K8</f>
-        <v>2.0624732563115106E-2</v>
+        <f>K19/L21/9.8</f>
+        <v>0.77777142857142856</v>
       </c>
       <c r="L21">
-        <f>L4</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="M21">
-        <f>N8/M8</f>
-        <v>2.4673851389676687E-2</v>
+        <f>M19/N21/9.8</f>
+        <v>0.73625263898662896</v>
       </c>
       <c r="N21">
-        <f>N4</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="O21">
-        <f>P8/O8</f>
-        <v>2.8284815106215583E-2</v>
+        <f>O19/P21/9.8</f>
+        <v>0.71427629513343782</v>
       </c>
       <c r="P21">
-        <f>P4</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <f>(C8-C9)/RADIANS(-0.5)</f>
-        <v>15853.742191269874</v>
+        <f>D8/C8</f>
+        <v>6.4279789881116949E-3</v>
       </c>
       <c r="D22">
         <f>D4</f>
         <v>125</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:M22" si="0">(E8-E9)/RADIANS(-0.5)</f>
-        <v>21845.734812748025</v>
+        <f>F8/E8</f>
+        <v>1.3799825578412762E-2</v>
       </c>
       <c r="F22">
         <f>F4</f>
         <v>175</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>23885.464563413756</v>
+        <f>H8/G8</f>
+        <v>1.8545747758857846E-2</v>
       </c>
       <c r="H22">
         <f>H4</f>
         <v>200</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>25281.189752352446</v>
+        <f>J8/I8</f>
+        <v>2.0164368796874301E-2</v>
       </c>
       <c r="J22">
         <f>J4</f>
         <v>225</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
-        <v>26546.280564001303</v>
+        <f>L8/K8</f>
+        <v>2.0624732563115106E-2</v>
       </c>
       <c r="L22">
         <f>L4</f>
         <v>250</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
-        <v>28205.566338700162</v>
+        <f>N8/M8</f>
+        <v>2.4673851389676687E-2</v>
       </c>
       <c r="N22">
         <f>N4</f>
         <v>290</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22" si="1">(O8-O9)/RADIANS(-0.5)</f>
-        <v>29273.559668824026</v>
+        <f>P8/O8</f>
+        <v>2.8284815106215583E-2</v>
       </c>
       <c r="P22">
         <f>P4</f>
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f>(C8-C9)/RADIANS(-0.5)</f>
+        <v>15853.742191269874</v>
+      </c>
+      <c r="D23">
+        <f>D4</f>
+        <v>125</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E21:M23" si="1">(E8-E9)/RADIANS(-0.5)</f>
+        <v>21845.734812748025</v>
+      </c>
+      <c r="F23">
+        <f>F4</f>
+        <v>175</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>23885.464563413756</v>
+      </c>
+      <c r="H23">
+        <f>H4</f>
+        <v>200</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>25281.189752352446</v>
+      </c>
+      <c r="J23">
+        <f>J4</f>
+        <v>225</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>26546.280564001303</v>
+      </c>
+      <c r="L23">
+        <f>L4</f>
+        <v>250</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>28205.566338700162</v>
+      </c>
+      <c r="N23">
+        <f>N4</f>
+        <v>290</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O21:O23" si="2">(O8-O9)/RADIANS(-0.5)</f>
+        <v>29273.559668824026</v>
+      </c>
+      <c r="P23">
+        <f>P4</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <f>$C$22*TAN(RADIANS(B7))/$P$2/$D$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <f>C7/$P$2/$D$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <f>D7/$P$2/$D$4/9.8/$C$21</f>
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <f>$C$22*TAN(RADIANS(B8))/$P$2/$D$4/9.8</f>
-        <v>0.22588328504814159</v>
+        <f>$C$23*TAN(RADIANS(B7))/$P$2/$D$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:C37" si="2">C8/$P$2/$D$4/9.8</f>
-        <v>0.23621224489795917</v>
+        <f>C7/$P$2/$D$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D37" si="3">D8/$P$2/$D$4/9.8/$C$21</f>
-        <v>0.23621224489795917</v>
+        <f>D7/$P$2/$D$4/9.8/$C$22</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>0.77*0.5</f>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <f t="shared" ref="B27:B37" si="4">$C$22*TAN(RADIANS(B9))/$P$2/$D$4/9.8</f>
-        <v>0.45180097845524597</v>
+        <f>$C$23*TAN(RADIANS(B8))/$C$21/$D$4/9.8</f>
+        <v>0.12992770070149481</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.46208979591836724</v>
+        <f>C8/$C$21/$D$4/9.8</f>
+        <v>0.13586890172324745</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
-        <v>0.34796857581742374</v>
+        <f>D8/$C$21/$D$4/9.8/$C$22</f>
+        <v>0.13586890172324745</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <f t="shared" si="4"/>
-        <v>0.67778750954890221</v>
+        <f t="shared" ref="B28:B38" si="3">$C$23*TAN(RADIANS(B9))/$C$21/$D$4/9.8</f>
+        <v>0.2598751930354869</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="2"/>
-        <v>0.66963265306122433</v>
+        <f t="shared" ref="C28:C38" si="4">C9/$C$21/$D$4/9.8</f>
+        <v>0.26579330422125186</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
-        <v>0.3606681588764537</v>
+        <f t="shared" ref="D28:D38" si="5">D9/$C$21/$D$4/9.8/$C$22</f>
+        <v>0.20015096275360106</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38986228069559348</v>
+      </c>
+      <c r="C29" s="1">
         <f t="shared" si="4"/>
-        <v>0.90387734962111144</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.86003265306122434</v>
+        <v>0.38517162041602104</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
-        <v>0.33780890937019964</v>
+        <f t="shared" si="5"/>
+        <v>0.2074557424161412</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51990879151329383</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="4"/>
-        <v>1.1301050329784534</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0308571428571427</v>
+        <v>0.49468939287223557</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
-        <v>0.23621224489795917</v>
+        <f t="shared" si="5"/>
+        <v>0.19430713902356891</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
+        <f t="shared" si="3"/>
+        <v>0.65003458956595095</v>
+      </c>
+      <c r="C31" s="1">
         <f t="shared" si="4"/>
-        <v>1.356505178073975</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1855673469387753</v>
+        <v>0.59294736347842414</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
-        <v>0.12191599736668858</v>
+        <f t="shared" si="5"/>
+        <v>0.13586890172324745</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
+        <f t="shared" si="3"/>
+        <v>0.78025958733183987</v>
+      </c>
+      <c r="C32" s="1">
         <f t="shared" si="4"/>
-        <v>1.58311250874832</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="2"/>
-        <v>1.3210448979591836</v>
+        <v>0.68193642297037149</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.5399166118060128E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.0125884760385768E-2</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91060375790801162</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="4"/>
-        <v>1.8099618756078777</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="2"/>
-        <v>1.436473469387755</v>
+        <v>0.75986289148706398</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.17525424621461483</v>
+        <f t="shared" si="5"/>
+        <v>-1.4609559325080368E-2</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0410871473069685</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" si="4"/>
-        <v>2.0370882775680088</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5351673469387754</v>
+        <v>0.82625721932666596</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.35558832565284171</v>
+        <f t="shared" si="5"/>
+        <v>-0.10080595934305453</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1717298868482937</v>
+      </c>
+      <c r="C35" s="1">
         <f t="shared" si="4"/>
-        <v>2.264526883589804</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6172897959183674</v>
+        <v>0.88302577827863082</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.52576273864384448</v>
+        <f t="shared" si="5"/>
+        <v>-0.20453383055112515</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3025522056616006</v>
+      </c>
+      <c r="C36" s="1">
         <f t="shared" si="4"/>
-        <v>2.4923130546392431</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6838857142857144</v>
+        <v>0.93026247828332631</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.69593715163484748</v>
+        <f t="shared" si="5"/>
+        <v>-0.30241787802916359</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4335744433174031</v>
+      </c>
+      <c r="C37" s="1">
         <f t="shared" si="4"/>
-        <v>2.7204823658981385</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7385306122448976</v>
+        <v>0.96856834295910255</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.86357164801404418</v>
+        <f t="shared" si="5"/>
+        <v>-0.40030192550720212</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <f>$E$22*TAN(RADIANS(B7))/$P$2/$F$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.5648170626028175</v>
       </c>
       <c r="C38" s="1">
-        <f>E7/$P$2/$F$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D38" s="1">
-        <f>F7/$P$2/$F$4/9.8/$E$21</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-0.49672501705273248</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <f t="shared" ref="B39:B50" si="5">$E$22*TAN(RADIANS(B8))/$P$2/$F$4/9.8</f>
-        <v>0.22232634344353205</v>
+        <f>$E$23*TAN(RADIANS(B7))/$E$21/$F$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" ref="C39:C50" si="6">E8/$P$2/$F$4/9.8</f>
-        <v>0.22732361516034985</v>
+        <f>E7/$P$2/$F$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ref="D39:D50" si="7">F8/$P$2/$F$4/9.8/$E$21</f>
-        <v>0.22732361516034985</v>
+        <f>F7/$P$2/$F$4/9.8/$E$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <f t="shared" si="5"/>
-        <v>0.44468655342406999</v>
+        <f>$E$23*TAN(RADIANS(B8))/$E$21/$F$4/9.8</f>
+        <v>0.12888200504511077</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="6"/>
-        <v>0.44964431486880463</v>
+        <f>E8/$E$21/$F$4/9.8</f>
+        <v>0.13177891050688878</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="7"/>
-        <v>0.35577413376396766</v>
+        <f>F8/$E$21/$F$4/9.8/$E$22</f>
+        <v>0.13177891050688881</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <f t="shared" si="5"/>
-        <v>0.66711451711705694</v>
+        <f t="shared" ref="B41:B51" si="6">$E$23*TAN(RADIANS(B9))/$E$21/$F$4/9.8</f>
+        <v>0.25778364243394492</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="6"/>
-        <v>0.65716618075801747</v>
+        <f t="shared" ref="C41:C51" si="7">E9/$E$21/$F$4/9.8</f>
+        <v>0.26065764389340329</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="7"/>
-        <v>0.43098529268319113</v>
+        <f t="shared" ref="D41:D51" si="8">F9/$E$21/$F$4/9.8/$E$22</f>
+        <v>0.20624134320966611</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88964416300154214</v>
+        <f t="shared" si="6"/>
+        <v>0.38672455647427456</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="6"/>
-        <v>0.85008746355685127</v>
+        <f t="shared" si="7"/>
+        <v>0.38095753167209745</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="7"/>
-        <v>0.46056271473007687</v>
+        <f t="shared" si="8"/>
+        <v>0.24984105709484494</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
-        <f t="shared" si="5"/>
-        <v>1.1123094815788757</v>
+        <f t="shared" si="6"/>
+        <v>0.51572441541746505</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="6"/>
-        <v>1.0238600583090378</v>
+        <f t="shared" si="7"/>
+        <v>0.4927934992766459</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="7"/>
-        <v>0.45211202271668088</v>
+        <f t="shared" si="8"/>
+        <v>0.26698701199351071</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <f t="shared" si="5"/>
-        <v>1.3351445461718343</v>
+        <f t="shared" si="6"/>
+        <v>0.64480292346904855</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1801632653061223</v>
+        <f t="shared" si="7"/>
+        <v>0.59352902205216274</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="7"/>
-        <v>0.4123937702537202</v>
+        <f t="shared" si="8"/>
+        <v>0.26208816773674909</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <f t="shared" si="5"/>
-        <v>1.5581835338312757</v>
+        <f t="shared" si="6"/>
+        <v>0.77397983284592442</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="6"/>
-        <v>1.3138542274052478</v>
+        <f t="shared" si="7"/>
+        <v>0.68413758602506736</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="7"/>
-        <v>0.34647837254923208</v>
+        <f t="shared" si="8"/>
+        <v>0.23906359972996921</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <f t="shared" si="5"/>
-        <v>1.7814607463776442</v>
+        <f t="shared" si="6"/>
+        <v>0.90327495589589057</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="6"/>
-        <v>1.4256209912536444</v>
+        <f t="shared" si="7"/>
+        <v>0.76163789023945061</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="7"/>
-        <v>0.28140804404608366</v>
+        <f t="shared" si="8"/>
+        <v>0.20085261452722827</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
-        <f t="shared" si="5"/>
-        <v>2.005010631604963</v>
+        <f t="shared" si="6"/>
+        <v>1.0327081772953517</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="6"/>
-        <v>1.5203148688046646</v>
+        <f t="shared" si="7"/>
+        <v>0.82642879355335941</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="7"/>
-        <v>0.21042223113355804</v>
+        <f t="shared" si="8"/>
+        <v>0.16313151375016344</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
-        <f t="shared" si="5"/>
-        <v>2.2288678046753079</v>
+        <f t="shared" si="6"/>
+        <v>1.1622994663412176</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="6"/>
-        <v>1.6025539358600582</v>
+        <f t="shared" si="7"/>
+        <v>0.88132258893200477</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="7"/>
-        <v>0.13943641822103245</v>
+        <f t="shared" si="8"/>
+        <v>0.12198122199336547</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
-        <f t="shared" si="5"/>
-        <v>2.4530670697321768</v>
+        <f t="shared" si="6"/>
+        <v>1.2920688893532244</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="6"/>
-        <v>1.6739125364431486</v>
+        <f t="shared" si="7"/>
+        <v>0.92899636294804022</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="7"/>
-        <v>7.0985812912525606E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.0830930236567469E-2</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
-        <f t="shared" si="5"/>
-        <v>2.6776434417616874</v>
+        <f t="shared" si="6"/>
+        <v>1.4220366222031489</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="6"/>
-        <v>1.7250379008746353</v>
+        <f t="shared" si="7"/>
+        <v>0.9703627587512339</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="7"/>
-        <v>-3.0422491248225259E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.1150291756797984E-2</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
-        <f>$G$22*TAN(RADIANS(B7))/$P$2/$H$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1.5522229629876878</v>
       </c>
       <c r="C51" s="1">
-        <f>G7/$P$2/$H$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <f>H7/$P$2/$H$4/9.8/$G$21</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-1.7635839324341995E-2</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B63" si="8">$G$22*TAN(RADIANS(B8))/$P$2/$H$4/9.8</f>
-        <v>0.2126992769038428</v>
+        <f>$G$23*TAN(RADIANS(B7))/$P$2/$H$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ref="C52:C63" si="9">G8/$P$2/$H$4/9.8</f>
-        <v>0.2151326530612245</v>
+        <f>G7/$P$2/$H$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" ref="D52:D63" si="10">H8/$P$2/$H$4/9.8/$G$21</f>
-        <v>0.21513265306122448</v>
+        <f>H7/$P$2/$H$4/9.8/$G$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
-        <f t="shared" si="8"/>
-        <v>0.42543095387247698</v>
+        <f>$G$23*TAN(RADIANS(B8))/$G$21/$H$4/9.8</f>
+        <v>0.12895490736675241</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="9"/>
-        <v>0.42782653061224479</v>
+        <f>G8/$G$21/$H$4/9.8</f>
+        <v>0.13043020997018101</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="10"/>
-        <v>0.3515850775092646</v>
+        <f>H8/$G$21/$H$4/9.8/$G$22</f>
+        <v>0.13043020997018104</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
-        <f t="shared" si="8"/>
-        <v>0.63822745071545539</v>
+        <f t="shared" ref="B54:B64" si="9">$G$23*TAN(RADIANS(B9))/$G$21/$H$4/9.8</f>
+        <v>0.25792945818229629</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="9"/>
-        <v>0.62454081632653058</v>
+        <f t="shared" ref="C54:C64" si="10">G9/$G$21/$H$4/9.8</f>
+        <v>0.25938184382771801</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="10"/>
-        <v>0.42586361501122189</v>
+        <f t="shared" ref="D54:D64" si="11">H9/$G$21/$H$4/9.8/$G$22</f>
+        <v>0.21315832268784057</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
-        <f t="shared" si="8"/>
-        <v>0.85112122675742918</v>
+        <f t="shared" si="9"/>
+        <v>0.38694330786623921</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="9"/>
-        <v>0.80446938775510202</v>
+        <f t="shared" si="10"/>
+        <v>0.37864540156642451</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="10"/>
-        <v>0.44292016806722689</v>
+        <f t="shared" si="11"/>
+        <v>0.25819177114301817</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
-        <f t="shared" si="8"/>
-        <v>1.0641448006596896</v>
+        <f t="shared" si="9"/>
+        <v>0.51601613579532579</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="9"/>
-        <v>0.96643877551020396</v>
+        <f t="shared" si="10"/>
+        <v>0.48773214882270693</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="10"/>
-        <v>0.42751424917793202</v>
+        <f t="shared" si="11"/>
+        <v>0.26853278523272567</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
-        <f t="shared" si="8"/>
-        <v>1.2773307703186636</v>
+        <f t="shared" si="9"/>
+        <v>0.64516765732080517</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="9"/>
-        <v>1.1123571428571428</v>
+        <f t="shared" si="10"/>
+        <v>0.58593063683943525</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="10"/>
-        <v>0.38569818362127462</v>
+        <f t="shared" si="11"/>
+        <v>0.25919251444202213</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4907118328672746</v>
+        <f t="shared" si="9"/>
+        <v>0.77441763583245093</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="9"/>
-        <v>1.239173469387755</v>
+        <f t="shared" si="10"/>
+        <v>0.67439774316081202</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="10"/>
-        <v>0.32847619917532228</v>
+        <f t="shared" si="11"/>
+        <v>0.23384035086725549</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
-        <f t="shared" si="8"/>
-        <v>1.7043208048053222</v>
+        <f t="shared" si="9"/>
+        <v>0.90378589488494887</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="9"/>
-        <v>1.3472142857142857</v>
+        <f t="shared" si="10"/>
+        <v>0.75128370101829967</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="10"/>
-        <v>0.27620611722950045</v>
+        <f t="shared" si="11"/>
+        <v>0.19914791650178534</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
-        <f t="shared" si="8"/>
-        <v>1.9181906422853086</v>
+        <f t="shared" si="9"/>
+        <v>1.0332923304025041</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="9"/>
-        <v>1.4387755102040816</v>
+        <f t="shared" si="10"/>
+        <v>0.81678647876170785</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="10"/>
-        <v>0.21733349861683804</v>
+        <f t="shared" si="11"/>
+        <v>0.16745771203332702</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
-        <f t="shared" si="8"/>
-        <v>2.1323544615804972</v>
+        <f t="shared" si="9"/>
+        <v>1.1629569229776928</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5167755102040814</v>
+        <f t="shared" si="10"/>
+        <v>0.87229804135063882</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="10"/>
-        <v>0.15736045722636882</v>
+        <f t="shared" si="11"/>
+        <v>0.13176453436885296</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
-        <f t="shared" si="8"/>
-        <v>2.3468455597623952</v>
+        <f t="shared" si="9"/>
+        <v>1.2927997502807977</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5857448979591835</v>
+        <f t="shared" si="10"/>
+        <v>0.91958773091152035</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="10"/>
-        <v>0.10013847278041652</v>
+        <f t="shared" si="11"/>
+        <v>9.5404194505042894E-2</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
-        <f t="shared" si="8"/>
-        <v>2.5616974356153239</v>
+        <f t="shared" si="9"/>
+        <v>1.4228409995961122</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="9"/>
-        <v>1.6494081632653061</v>
+        <f t="shared" si="10"/>
+        <v>0.96140235829796683</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="10"/>
-        <v>5.3920716112531963E-2</v>
+        <f t="shared" si="11"/>
+        <v>6.0711760139572746E-2</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
-        <f>$I$22*TAN(RADIANS(B7))/$P$2/$J$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.5531009805019842</v>
       </c>
       <c r="C64" s="1">
-        <f>I7/$P$2/$J$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="D64" s="1">
-        <f>J7/$P$2/$J$4/9.8/$I$21</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3.2690947767462251E-2</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
-        <f t="shared" ref="B65:B76" si="11">$I$22*TAN(RADIANS(B8))/$P$2/$J$4/9.8</f>
-        <v>0.20011392341212308</v>
+        <f>$I$23*TAN(RADIANS(B7))/$P$2/$J$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:C76" si="12">I8/$P$2/$J$4/9.8</f>
-        <v>0.20196825396825396</v>
+        <f>I7/$P$2/$J$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" ref="D65:D76" si="13">J8/$P$2/$J$4/9.8/$I$21</f>
-        <v>0.20196825396825394</v>
+        <f>J7/$P$2/$J$4/9.8/$I$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
-        <f t="shared" si="11"/>
-        <v>0.40025832978675824</v>
+        <f>$I$23*TAN(RADIANS(B8))/$I$21/$J$4/9.8</f>
+        <v>0.12731435990228385</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="12"/>
-        <v>0.40207709750566889</v>
+        <f>I8/$I$21/$J$4/9.8</f>
+        <v>0.12849410243981255</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="13"/>
-        <v>0.32746745854986381</v>
+        <f>J8/$I$21/$J$4/9.8/$I$22</f>
+        <v>0.12849410243981255</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
-        <f t="shared" si="11"/>
-        <v>0.60046372066288745</v>
+        <f t="shared" ref="B67:B77" si="12">$I$23*TAN(RADIANS(B9))/$I$21/$J$4/9.8</f>
+        <v>0.2546481133519729</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="12"/>
-        <v>0.58949659863945569</v>
+        <f t="shared" ref="C67:C77" si="13">I9/$I$21/$J$4/9.8</f>
+        <v>0.2558052304780371</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="13"/>
-        <v>0.40393650793650787</v>
+        <f t="shared" ref="D67:D77" si="14">J9/$I$21/$J$4/9.8/$I$22</f>
+        <v>0.20833787656165598</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
-        <f t="shared" si="11"/>
-        <v>0.80076063475649406</v>
+        <f t="shared" si="12"/>
+        <v>0.38202066571499749</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="12"/>
-        <v>0.76276643990929704</v>
+        <f t="shared" si="13"/>
+        <v>0.37504327955127759</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="13"/>
-        <v>0.4327248559408915</v>
+        <f t="shared" si="14"/>
+        <v>0.25698820487962509</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
-        <f t="shared" si="11"/>
-        <v>1.00117966660927</v>
+        <f t="shared" si="12"/>
+        <v>0.50945144600964531</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="12"/>
-        <v>0.92089795918367334</v>
+        <f t="shared" si="13"/>
+        <v>0.48527918195877484</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="13"/>
-        <v>0.43362449181602852</v>
+        <f t="shared" si="14"/>
+        <v>0.27530362259933105</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
-        <f t="shared" si="11"/>
-        <v>1.2017514853097235</v>
+        <f t="shared" si="12"/>
+        <v>0.63695991877104552</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0647891156462583</v>
+        <f t="shared" si="13"/>
+        <v>0.58588394155529389</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="13"/>
-        <v>0.40753505143705582</v>
+        <f t="shared" si="14"/>
+        <v>0.27587597940307196</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4025068533110649</v>
+        <f t="shared" si="12"/>
+        <v>0.76456559596171214</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1876190476190474</v>
+        <f t="shared" si="13"/>
+        <v>0.67742884841769957</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="13"/>
-        <v>0.35535617067911052</v>
+        <f t="shared" si="14"/>
+        <v>0.25927763209458837</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
-        <f t="shared" si="11"/>
-        <v>1.6034766453704781</v>
+        <f t="shared" si="12"/>
+        <v>0.89228804894366098</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="12"/>
-        <v>1.2899773242630383</v>
+        <f t="shared" si="13"/>
+        <v>0.7555744062045564</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="13"/>
-        <v>0.30317728992116516</v>
+        <f t="shared" si="14"/>
+        <v>0.22608093747762115</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
-        <f t="shared" si="11"/>
-        <v>1.8046918676346397</v>
+        <f t="shared" si="12"/>
+        <v>1.020146920527752</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3769160997732426</v>
+        <f t="shared" si="13"/>
+        <v>0.82069570436027062</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="13"/>
-        <v>0.24245186834941837</v>
+        <f t="shared" si="14"/>
+        <v>0.19288424286065406</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
-        <f t="shared" si="11"/>
-        <v>2.0061836768966903</v>
+        <f t="shared" si="12"/>
+        <v>1.1481619371160758</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4503945578231292</v>
+        <f t="shared" si="13"/>
+        <v>0.87600697089305901</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="13"/>
-        <v>0.17947735708982923</v>
+        <f t="shared" si="14"/>
+        <v>0.15425015860814914</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
-        <f t="shared" si="11"/>
-        <v>2.2079834000502347</v>
+        <f t="shared" si="12"/>
+        <v>1.2763529209534203</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5138049886621314</v>
+        <f t="shared" si="13"/>
+        <v>0.92275465687971747</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="13"/>
-        <v>0.12145084314349346</v>
+        <f t="shared" si="14"/>
+        <v>0.11418518234629223</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
-        <f t="shared" si="11"/>
-        <v>2.4101225537664042</v>
+        <f t="shared" si="12"/>
+        <v>1.404739802504088</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5718095238095238</v>
+        <f t="shared" si="13"/>
+        <v>0.96309696927728916</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="13"/>
-        <v>7.7818503199349506E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.7268168505009768E-2</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
-        <f>$K$22*TAN(RADIANS(B7))/$P$2/$L$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1.5333426329706279</v>
       </c>
       <c r="C77" s="1">
-        <f>K7/$P$2/$L$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
-        <f>L7/$P$2/$L$4/9.8/$K$21</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4.9508863523580339E-2</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
-        <f t="shared" ref="B78:B89" si="14">$K$22*TAN(RADIANS(B8))/$P$2/$L$4/9.8</f>
-        <v>0.18911500474973797</v>
+        <f>$K$23*TAN(RADIANS(B7))/$P$2/$L$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ref="C78:C89" si="15">K8/$P$2/$L$4/9.8</f>
-        <v>0.19077551020408162</v>
+        <f>K7/$P$2/$L$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78:D89" si="16">L8/$P$2/$L$4/9.8/$K$21</f>
-        <v>0.19077551020408165</v>
+        <f>L7/$P$2/$L$4/9.8/$K$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
-        <f t="shared" si="14"/>
-        <v>0.37825881701822311</v>
+        <f>$K$23*TAN(RADIANS(B8))/$K$21/$L$4/9.8</f>
+        <v>0.12157492407319131</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="15"/>
-        <v>0.37988571428571427</v>
+        <f>K8/$K$21/$L$4/9.8</f>
+        <v>0.12264240057936332</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="16"/>
-        <v>0.30080785841307472</v>
+        <f>L8/$K$21/$L$4/9.8/$K$22</f>
+        <v>0.12264240057936331</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
-        <f t="shared" si="14"/>
-        <v>0.56746026187964849</v>
+        <f t="shared" ref="B80:B90" si="15">$K$23*TAN(RADIANS(B9))/$K$21/$L$4/9.8</f>
+        <v>0.24316836741675496</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="15"/>
-        <v>0.56102040816326526</v>
+        <f t="shared" ref="C80:C90" si="16">K9/$K$21/$L$4/9.8</f>
+        <v>0.24421423848357945</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="16"/>
-        <v>0.38511321873147591</v>
+        <f t="shared" ref="D80:D90" si="17">L9/$K$21/$L$4/9.8/$K$22</f>
+        <v>0.1933780590048052</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
-        <f t="shared" si="14"/>
-        <v>0.7567481995418387</v>
+        <f t="shared" si="15"/>
+        <v>0.36479886058679928</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="15"/>
-        <v>0.73191836734693883</v>
+        <f t="shared" si="16"/>
+        <v>0.36065892083084056</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="16"/>
-        <v>0.44289999153188242</v>
+        <f t="shared" si="17"/>
+        <v>0.2475748044890467</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
-        <f t="shared" si="14"/>
-        <v>0.9461515429699624</v>
+        <f t="shared" si="15"/>
+        <v>0.48648495672552255</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="15"/>
-        <v>0.88767346938775515</v>
+        <f t="shared" si="16"/>
+        <v>0.47052279143969683</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="16"/>
-        <v>0.46664798035396721</v>
+        <f t="shared" si="17"/>
+        <v>0.28472374740312772</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
-        <f t="shared" si="14"/>
-        <v>1.135699275578667</v>
+        <f t="shared" si="15"/>
+        <v>0.60824524289083626</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="15"/>
-        <v>1.0299428571428573</v>
+        <f t="shared" si="16"/>
+        <v>0.57065188870346462</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="16"/>
-        <v>0.46704378016766873</v>
+        <f t="shared" si="17"/>
+        <v>0.29999043627192806</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
-        <f t="shared" si="14"/>
-        <v>1.3254204690156701</v>
+        <f t="shared" si="15"/>
+        <v>0.73009835142997104</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="15"/>
-        <v>1.1546938775510205</v>
+        <f t="shared" si="16"/>
+        <v>0.6621115274410404</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="16"/>
-        <v>0.45121178761961211</v>
+        <f t="shared" si="17"/>
+        <v>0.30024488108640812</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
-        <f t="shared" si="14"/>
-        <v>1.5153443010600691</v>
+        <f t="shared" si="15"/>
+        <v>0.85206297141188125</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="15"/>
-        <v>1.2593959183673469</v>
+        <f t="shared" si="16"/>
+        <v>0.74230926666456754</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="16"/>
-        <v>0.42311000084681166</v>
+        <f t="shared" si="17"/>
+        <v>0.2900670885072078</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
-        <f t="shared" si="14"/>
-        <v>1.7055000736588548</v>
+        <f t="shared" si="15"/>
+        <v>0.97415786013339245</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="15"/>
-        <v>1.3476979591836733</v>
+        <f t="shared" si="16"/>
+        <v>0.80961827093632244</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="16"/>
-        <v>0.38036362096705889</v>
+        <f t="shared" si="17"/>
+        <v>0.27200150667912737</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
-        <f t="shared" si="14"/>
-        <v>1.8959172311254577</v>
+        <f t="shared" si="15"/>
+        <v>1.0964018547142003</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="15"/>
-        <v>1.4252244897959183</v>
+        <f t="shared" si="16"/>
+        <v>0.86638433200037779</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="16"/>
-        <v>0.3368256414599034</v>
+        <f t="shared" si="17"/>
+        <v>0.2445214667152866</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
-        <f t="shared" si="14"/>
-        <v>2.0866253785244928</v>
+        <f t="shared" si="15"/>
+        <v>1.2188138837960296</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="15"/>
-        <v>1.4941306122448978</v>
+        <f t="shared" si="16"/>
+        <v>0.91622322281348068</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="16"/>
-        <v>0.29091286307053937</v>
+        <f t="shared" si="17"/>
+        <v>0.21653253712248588</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
-        <f t="shared" si="14"/>
-        <v>2.277654300267304</v>
+        <f t="shared" si="15"/>
+        <v>1.3414129793614955</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="15"/>
-        <v>1.5555428571428571</v>
+        <f t="shared" si="16"/>
+        <v>0.96052037742582141</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="16"/>
-        <v>0.24737488356338383</v>
+        <f t="shared" si="17"/>
+        <v>0.18701693864280503</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
-        <f>$M$22*TAN(RADIANS(B7))/$P$2/$N$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1.4642182886884807</v>
       </c>
       <c r="C90" s="1">
-        <f>M7/$P$2/$N$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="D90" s="1">
-        <f>N7/$P$2/$N$4/9.8/$M$21</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>0.15902800905000428</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
-        <f t="shared" ref="B91:B102" si="17">$M$22*TAN(RADIANS(B8))/$P$2/$N$4/9.8</f>
-        <v>0.17322044222470989</v>
+        <f>$M$23*TAN(RADIANS(B7))/$P$2/$N$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ref="C91:C102" si="18">M8/$P$2/$N$4/9.8</f>
-        <v>0.17369458128078816</v>
+        <f>M7/$P$2/$N$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" ref="D91:D101" si="19">N8/$P$2/$N$4/9.8/$M$21</f>
-        <v>0.17369458128078816</v>
+        <f>N7/$P$2/$N$4/9.8/$M$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
-        <f t="shared" si="17"/>
-        <v>0.34646727078054868</v>
+        <f>$M$23*TAN(RADIANS(B8))/$M$21/$N$4/9.8</f>
+        <v>0.11763655099635963</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="18"/>
-        <v>0.34691062631949332</v>
+        <f>M8/$M$21/$N$4/9.8</f>
+        <v>0.11795854580559448</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="19"/>
-        <v>0.29234309657275515</v>
+        <f>N8/$M$21/$N$4/9.8/$M$22</f>
+        <v>0.11795854580559448</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
-        <f t="shared" si="17"/>
-        <v>0.5197668880786076</v>
+        <f t="shared" ref="B93:B103" si="18">$M$23*TAN(RADIANS(B9))/$M$21/$N$4/9.8</f>
+        <v>0.23529102133842464</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="18"/>
-        <v>0.51446164672765649</v>
+        <f t="shared" ref="C93:C103" si="19">M9/$M$21/$N$4/9.8</f>
+        <v>0.2355921106082402</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="19"/>
-        <v>0.37904778082457713</v>
+        <f t="shared" ref="D93:D103" si="20">N9/$M$21/$N$4/9.8/$M$22</f>
+        <v>0.1985344982770679</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
-        <f t="shared" si="17"/>
-        <v>0.69314572871072999</v>
+        <f t="shared" si="18"/>
+        <v>0.35298134129203917</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="18"/>
-        <v>0.67420830401125953</v>
+        <f t="shared" si="19"/>
+        <v>0.3493784738318606</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="19"/>
-        <v>0.44179459179629044</v>
+        <f t="shared" si="20"/>
+        <v>0.25741692508314457</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
-        <f t="shared" si="17"/>
-        <v>0.86663027559200378</v>
+        <f t="shared" si="18"/>
+        <v>0.47072546297747003</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="18"/>
-        <v>0.82325123152709334</v>
+        <f t="shared" si="19"/>
+        <v>0.45786477922797902</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="19"/>
-        <v>0.47830182727074178</v>
+        <f t="shared" si="20"/>
+        <v>0.30002920764017377</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
-        <f t="shared" si="17"/>
-        <v>1.0402470761659217</v>
+        <f t="shared" si="18"/>
+        <v>0.5885413713320099</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="18"/>
-        <v>0.9626741731175229</v>
+        <f t="shared" si="19"/>
+        <v>0.55908202424931785</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="19"/>
-        <v>0.49512938112224669</v>
+        <f t="shared" si="20"/>
+        <v>0.32482180840062708</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
-        <f t="shared" si="17"/>
-        <v>1.2140227586933177</v>
+        <f t="shared" si="18"/>
+        <v>0.70644709511514137</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="18"/>
-        <v>1.0879802955665026</v>
+        <f t="shared" si="19"/>
+        <v>0.65376619528490809</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="19"/>
-        <v>0.49085118946508449</v>
+        <f t="shared" si="20"/>
+        <v>0.33624964781364858</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
-        <f t="shared" si="17"/>
-        <v>1.3879840486463715</v>
+        <f t="shared" si="18"/>
+        <v>0.82446071797059162</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="18"/>
-        <v>1.1955383532723434</v>
+        <f t="shared" si="19"/>
+        <v>0.7388634267335108</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="19"/>
-        <v>0.47573491227644443</v>
+        <f t="shared" si="20"/>
+        <v>0.33334426491203301</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
-        <f t="shared" si="17"/>
-        <v>1.5621577852292092</v>
+        <f t="shared" si="18"/>
+        <v>0.94260038955974368</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="18"/>
-        <v>1.2874524982406754</v>
+        <f t="shared" si="19"/>
+        <v>0.81190768627863297</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="19"/>
-        <v>0.44578757067630853</v>
+        <f t="shared" si="20"/>
+        <v>0.32307857865965772</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
-        <f t="shared" si="17"/>
-        <v>1.7365709380469152</v>
+        <f t="shared" si="18"/>
+        <v>1.0608843367810188</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="18"/>
-        <v>1.3638916256157634</v>
+        <f t="shared" si="19"/>
+        <v>0.87432793450676982</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="19"/>
-        <v>0.40186480299610922</v>
+        <f t="shared" si="20"/>
+        <v>0.30274089834834839</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
-        <f t="shared" si="17"/>
-        <v>1.9112506239450897</v>
+        <f t="shared" si="18"/>
+        <v>1.1793308750900471</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="18"/>
-        <v>1.4247431386347642</v>
+        <f t="shared" si="19"/>
+        <v>0.9262388705954322</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="19"/>
-        <v>0.34311097090441406</v>
+        <f t="shared" si="20"/>
+        <v>0.27291230055842797</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
-        <f t="shared" si="17"/>
-        <v>2.0862241240424959</v>
+        <f t="shared" si="18"/>
+        <v>1.29795841993566</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="18"/>
-        <v>1.4725052779732579</v>
+        <f t="shared" si="19"/>
+        <v>0.96756402842627953</v>
       </c>
       <c r="D102" s="1">
-        <f>N19/$P$2/$N$4/9.8/$M$21</f>
-        <v>0.27408947883552942</v>
+        <f t="shared" si="20"/>
+        <v>0.2330117087095733</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
-        <f>$O$22*TAN(RADIANS(B7))/$P$2/$P$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1.416785498327011</v>
       </c>
       <c r="C103" s="1">
-        <f>O7/$P$2/$P$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
-        <f>P7/$P$2/$P$4/9.8/$O$21</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>0.18613819789684119</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
-        <f t="shared" ref="B104:B115" si="20">$O$22*TAN(RADIANS(B8))/$P$2/$P$4/9.8</f>
-        <v>0.16041851491033965</v>
+        <f>$O$23*TAN(RADIANS(B7))/$P$2/$P$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" ref="C104:C115" si="21">O8/$P$2/$P$4/9.8</f>
-        <v>0.15962323390894817</v>
+        <f>O7/$P$2/$P$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" ref="D104:D115" si="22">P8/$P$2/$P$4/9.8/$O$21</f>
-        <v>0.1596232339089482</v>
+        <f>P7/$P$2/$P$4/9.8/$O$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
-        <f t="shared" si="20"/>
-        <v>0.32086146605926219</v>
+        <f>$O$23*TAN(RADIANS(B8))/$O$21/$P$4/9.8</f>
+        <v>0.11229444124305639</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="21"/>
-        <v>0.3200376766091052</v>
+        <f>O8/$O$21/$P$4/9.8</f>
+        <v>0.11173773720093014</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="22"/>
-        <v>0.28305928127108326</v>
+        <f>P8/$O$21/$P$4/9.8/$O$22</f>
+        <v>0.11173773720093014</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
-        <f t="shared" si="20"/>
-        <v>0.48135330457691655</v>
+        <f t="shared" ref="B106:B116" si="21">$O$23*TAN(RADIANS(B9))/$O$21/$P$4/9.8</f>
+        <v>0.22460598807868901</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="21"/>
-        <v>0.47637048665620096</v>
+        <f t="shared" ref="C106:C116" si="22">O9/$O$21/$P$4/9.8</f>
+        <v>0.22402932785926852</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="22"/>
-        <v>0.37474828767497148</v>
+        <f t="shared" ref="D106:D116" si="23">P9/$O$21/$P$4/9.8/$O$22</f>
+        <v>0.19814410977911806</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
-        <f t="shared" si="20"/>
-        <v>0.6419185113958723</v>
+        <f t="shared" si="21"/>
+        <v>0.3369517565237079</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="21"/>
-        <v>0.62644897959183665</v>
+        <f t="shared" si="22"/>
+        <v>0.3334637379833581</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="22"/>
-        <v>0.44001842782689188</v>
+        <f t="shared" si="23"/>
+        <v>0.26232726063305989</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
-        <f t="shared" si="20"/>
-        <v>0.80258161220059454</v>
+        <f t="shared" si="21"/>
+        <v>0.44934888345689256</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="21"/>
-        <v>0.76804395604395592</v>
+        <f t="shared" si="22"/>
+        <v>0.43852006839650637</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="22"/>
-        <v>0.48397586915369534</v>
+        <f t="shared" si="23"/>
+        <v>0.30801696124095057</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
-        <f t="shared" si="20"/>
-        <v>0.96336719243495539</v>
+        <f t="shared" si="21"/>
+        <v>0.5618145370837625</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="21"/>
-        <v>0.90255572998430134</v>
+        <f t="shared" si="22"/>
+        <v>0.53763785896077754</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="22"/>
-        <v>0.50972871356737826</v>
+        <f t="shared" si="23"/>
+        <v>0.33878757593606074</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
-        <f t="shared" si="20"/>
-        <v>1.1242999123873285</v>
+        <f t="shared" si="21"/>
+        <v>0.67436592744197354</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="21"/>
-        <v>1.0229450549450547</v>
+        <f t="shared" si="22"/>
+        <v>0.63179734238253704</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="22"/>
-        <v>0.50662061165538197</v>
+        <f t="shared" si="23"/>
+        <v>0.3568148047473374</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
-        <f t="shared" si="20"/>
-        <v>1.2854045223729913</v>
+        <f t="shared" si="21"/>
+        <v>0.78702031696102415</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="21"/>
-        <v>1.1259843014128728</v>
+        <f t="shared" si="22"/>
+        <v>0.71607098115579559</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="22"/>
-        <v>0.48841601474226143</v>
+        <f t="shared" si="23"/>
+        <v>0.35463910471839022</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
-        <f t="shared" si="20"/>
-        <v>1.4467058780337601</v>
+        <f t="shared" si="21"/>
+        <v>0.89979503109007553</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="21"/>
-        <v>1.2172307692307691</v>
+        <f t="shared" si="22"/>
+        <v>0.78819940482731654</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="22"/>
-        <v>0.46532725768171818</v>
+        <f t="shared" si="23"/>
+        <v>0.34189571883455672</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
-        <f t="shared" si="20"/>
-        <v>1.6082289557750735</v>
+        <f t="shared" si="21"/>
+        <v>1.012707469007839</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="21"/>
-        <v>1.2971114599686029</v>
+        <f t="shared" si="22"/>
+        <v>0.85207277458603869</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="22"/>
-        <v>0.43402423128232775</v>
+        <f t="shared" si="23"/>
+        <v>0.32573337576237765</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
-        <f t="shared" si="20"/>
-        <v>1.7699988683610168</v>
+        <f t="shared" si="21"/>
+        <v>1.1257751144286761</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="21"/>
-        <v>1.3674160125588697</v>
+        <f t="shared" si="22"/>
+        <v>0.90798999547246795</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="22"/>
-        <v>0.3998351102503695</v>
+        <f t="shared" si="23"/>
+        <v>0.30382096832798106</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
-        <f t="shared" si="20"/>
-        <v>1.9320408806881622</v>
+        <f t="shared" si="21"/>
+        <v>1.2390155465192596</v>
       </c>
       <c r="C115" s="1">
+        <f t="shared" si="22"/>
+        <v>0.95720383125931341</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="23"/>
+        <v>0.27988826800956207</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="2">
         <f t="shared" si="21"/>
-        <v>1.4285525902668756</v>
-      </c>
-      <c r="D115" s="1">
+        <v>1.3524464509404075</v>
+      </c>
+      <c r="C116" s="1">
         <f t="shared" si="22"/>
-        <v>0.36453595282126972</v>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="23"/>
+        <v>0.25517853196651913</v>
       </c>
     </row>
   </sheetData>
@@ -2809,39 +2871,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D21:N22 O21:O22" formula="1"/>
+    <ignoredError sqref="D22:N23 O22:O23" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8BF99F-D4AF-4CCB-993E-F08DDEADFBB0}">
-  <dimension ref="B2:P102"/>
+  <dimension ref="B2:P116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:N5"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="3" t="s">
         <v>24</v>
       </c>
@@ -2850,26 +2912,26 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2908,34 +2970,34 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3508,1212 +3570,1330 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <f>D8/C8</f>
-        <v>5.6949635166399721E-3</v>
+        <f>C19/D21/9.8</f>
+        <v>0.83045481049562686</v>
       </c>
       <c r="D21">
         <f>D4</f>
         <v>175</v>
       </c>
       <c r="E21">
-        <f>F8/E8</f>
-        <v>8.7249652984334718E-3</v>
+        <f>E19/F21/9.8</f>
+        <v>0.8494795918367346</v>
       </c>
       <c r="F21">
-        <f>F4</f>
+        <f t="shared" ref="F21:Q21" si="0">F4</f>
         <v>200</v>
       </c>
       <c r="G21">
-        <f>H8/G8</f>
-        <v>1.1533115443855891E-2</v>
+        <f>G19/H21/9.8</f>
+        <v>0.79513469387755098</v>
       </c>
       <c r="H21">
-        <f>H4</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="I21">
-        <f>J8/I8</f>
-        <v>1.409910843873108E-2</v>
+        <f>I19/J21/9.8</f>
+        <v>0.76599225897255441</v>
       </c>
       <c r="J21">
-        <f>J4</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="K21">
-        <f>L8/K8</f>
-        <v>1.3720136518771329E-2</v>
+        <f>K19/L21/9.8</f>
+        <v>0.73788676761026983</v>
       </c>
       <c r="L21">
-        <f>L4</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="M21">
-        <f>N8/M8</f>
-        <v>1.447780070558477E-2</v>
+        <f>M19/N21/9.8</f>
+        <v>0.72423233908948181</v>
       </c>
       <c r="N21">
-        <f>N4</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <f>(C8-C9)/RADIANS(-0.5)</f>
-        <v>22354.521334824196</v>
+        <f>D8/C8</f>
+        <v>5.6949635166399721E-3</v>
       </c>
       <c r="D22">
         <f>D4</f>
         <v>175</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:M22" si="0">(E8-E9)/RADIANS(-0.5)</f>
-        <v>26577.220284938365</v>
+        <f>F8/E8</f>
+        <v>8.7249652984334718E-3</v>
       </c>
       <c r="F22">
         <f>F4</f>
         <v>200</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>28321.303813316597</v>
+        <f>H8/G8</f>
+        <v>1.1533115443855891E-2</v>
       </c>
       <c r="H22">
         <f>H4</f>
         <v>250</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>31462.258446223772</v>
+        <f>J8/I8</f>
+        <v>1.409910843873108E-2</v>
       </c>
       <c r="J22">
         <f>J4</f>
         <v>290</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
-        <v>31596.330570284379</v>
+        <f>L8/K8</f>
+        <v>1.3720136518771329E-2</v>
       </c>
       <c r="L22">
         <f>L4</f>
         <v>310</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
-        <v>32525.668113986569</v>
+        <f>N8/M8</f>
+        <v>1.447780070558477E-2</v>
       </c>
       <c r="N22">
         <f>N4</f>
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f>(C8-C9)/RADIANS(-0.5)</f>
+        <v>22354.521334824196</v>
+      </c>
+      <c r="D23">
+        <f>D4</f>
+        <v>175</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:M23" si="1">(E8-E9)/RADIANS(-0.5)</f>
+        <v>26577.220284938365</v>
+      </c>
+      <c r="F23">
+        <f>F4</f>
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>28321.303813316597</v>
+      </c>
+      <c r="H23">
+        <f>H4</f>
+        <v>250</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>31462.258446223772</v>
+      </c>
+      <c r="J23">
+        <f>J4</f>
+        <v>290</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>31596.330570284379</v>
+      </c>
+      <c r="L23">
+        <f>L4</f>
+        <v>310</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>32525.668113986569</v>
+      </c>
+      <c r="N23">
+        <f>N4</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>$C$22*TAN(RADIANS(B7))/$P$2/$D$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f>$C$23*TAN(RADIANS(B7))/$P$2/$D$4/9.8</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
         <f>C7/$P$2/$D$4/9.8</f>
         <v>0</v>
       </c>
-      <c r="D25">
-        <f>D7/$P$2/$D$4/9.8/$C$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f>$C$22*TAN(RADIANS(B8))/$P$2/$D$4/9.8</f>
-        <v>0.22750431745155383</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:C37" si="1">C8/$P$2/$D$4/9.8</f>
-        <v>0.26211078717201164</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D37" si="2">D8/$P$2/$D$4/9.8/$C$21</f>
-        <v>0.26211078717201158</v>
+      <c r="D26" s="1">
+        <f>D7/$P$2/$D$4/9.8/$C$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f t="shared" ref="B27:B37" si="3">$C$22*TAN(RADIANS(B9))/$P$2/$D$4/9.8</f>
-        <v>0.45504329019076573</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>0.48960932944606406</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="2">
+        <f>$C$23*TAN(RADIANS(B8))/$C$21/$D$4/9.8</f>
+        <v>0.13697573581142614</v>
+      </c>
+      <c r="C27" s="1">
+        <f>C8/$C$21/$D$4/9.8</f>
+        <v>0.15781158942024809</v>
+      </c>
+      <c r="D27" s="1">
+        <f>D8/$C$21/$D$4/9.8/$C$22</f>
+        <v>0.15781158942024809</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f t="shared" ref="B28:B38" si="2">$C$23*TAN(RADIANS(B9))/$C$21/$D$4/9.8</f>
+        <v>0.27397233686875128</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C38" si="3">C9/$C$21/$D$4/9.8</f>
+        <v>0.29478384811441966</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:D38" si="4">D9/$C$21/$D$4/9.8/$C$22</f>
+        <v>0.19603158373296442</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
         <f t="shared" si="2"/>
-        <v>0.32559074344023314</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28">
+        <v>0.41101068113325956</v>
+      </c>
+      <c r="C29" s="1">
         <f t="shared" si="3"/>
-        <v>0.68265159462439917</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>0.68587755102040804</v>
-      </c>
-      <c r="D28">
+        <v>0.41295296405777149</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.16397610463197654</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
         <f t="shared" si="2"/>
-        <v>0.27234948979591833</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29">
+        <v>0.54811167201347566</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="3"/>
-        <v>0.91036394942478405</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>0.85523032069970839</v>
-      </c>
-      <c r="D29">
+        <v>0.51491683225321749</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="4"/>
+        <v>7.5207085583086974E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
         <f t="shared" si="2"/>
-        <v>0.12491217201166178</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30">
+        <v>0.68529625112999581</v>
+      </c>
+      <c r="C31" s="1">
         <f t="shared" si="3"/>
-        <v>1.1382151367310485</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>0.99891545189504383</v>
-      </c>
-      <c r="D30">
+        <v>0.60142673585024886</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.9179346032593033E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
         <f t="shared" si="2"/>
-        <v>-9.8291545189504365E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31">
+        <v>0.82258541112987504</v>
+      </c>
+      <c r="C32" s="1">
         <f t="shared" si="3"/>
-        <v>1.3662400234326553</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>1.1256209912536441</v>
-      </c>
-      <c r="D31">
+        <v>0.67771357154392198</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.20096319590234718</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
         <f t="shared" si="2"/>
-        <v>-0.33378170553935854</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32">
+        <v>0.96000020856726054</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="3"/>
-        <v>1.5944735825629732</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>1.2386122448979591</v>
-      </c>
-      <c r="D32">
+        <v>0.74574331393103632</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.3427470457721013</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
         <f t="shared" si="2"/>
-        <v>-0.56927186588921264</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
+        <v>1.0975617768671093</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" si="3"/>
-        <v>1.8229509148308372</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>1.3348338192419824</v>
-      </c>
-      <c r="D33">
+        <v>0.8036763724960152</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.46727025304901587</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
         <f t="shared" si="2"/>
-        <v>-0.77609365889212822</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34">
+        <v>1.2352913393890113</v>
+      </c>
+      <c r="C35" s="1">
         <f t="shared" si="3"/>
-        <v>2.051707270318381</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>1.4238483965014577</v>
-      </c>
-      <c r="D34">
+        <v>0.85727024427234366</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.57453281773309073</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
         <f t="shared" si="2"/>
-        <v>-0.95424708454810481</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35">
+        <v>1.3732102226083733</v>
+      </c>
+      <c r="C36" s="1">
         <f t="shared" si="3"/>
-        <v>2.2807780703737883</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>1.5125714285714285</v>
-      </c>
-      <c r="D35">
+        <v>0.91068858260252905</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.65713732157025184</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0914456997084545</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36">
+        <v>1.5113398694324598</v>
+      </c>
+      <c r="C37" s="1">
         <f t="shared" si="3"/>
-        <v>2.5101989297280376</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>1.5929096209912537</v>
-      </c>
-      <c r="D36">
+        <v>0.95905857902164671</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.7471392436614871</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2409307580174924</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37">
+        <v>1.6497018526691236</v>
+      </c>
+      <c r="C38" s="1">
         <f t="shared" si="3"/>
-        <v>2.7400056788652427</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>1.6609096209912537</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>-1.3965590379008743</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <f>$E$22*TAN(RADIANS(B7))/$P$2/$F$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.84083987487975953</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <f>$E$23*TAN(RADIANS(B7))/$E$21/$F$4/9.8</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
         <f>E7/$P$2/$F$4/9.8</f>
         <v>0</v>
       </c>
-      <c r="D38">
-        <f>F7/$P$2/$F$4/9.8/$E$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <f t="shared" ref="B39:B50" si="4">$E$22*TAN(RADIANS(B8))/$P$2/$F$4/9.8</f>
-        <v>0.23666927313523442</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:C50" si="5">E8/$P$2/$F$4/9.8</f>
-        <v>0.25729591836734694</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ref="D39:D50" si="6">F8/$P$2/$F$4/9.8/$E$21</f>
-        <v>0.25729591836734694</v>
+      <c r="D39" s="1">
+        <f>F7/$P$2/$F$4/9.8/$E$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <f t="shared" si="4"/>
-        <v>0.47337459763789852</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="2">
+        <f>$E$23*TAN(RADIANS(B8))/$E$21/$F$4/9.8</f>
+        <v>0.13930250674033909</v>
+      </c>
+      <c r="C40" s="1">
+        <f>E8/$E$21/$F$4/9.8</f>
+        <v>0.15144326057970667</v>
+      </c>
+      <c r="D40" s="1">
+        <f>F8/$E$21/$F$4/9.8/$E$22</f>
+        <v>0.1514432605797067</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <f t="shared" ref="B41:B51" si="5">$E$23*TAN(RADIANS(B9))/$E$21/$F$4/9.8</f>
+        <v>0.27862623315904134</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C51" si="6">E9/$E$21/$F$4/9.8</f>
+        <v>0.29074223113791153</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41:D51" si="7">F9/$E$21/$F$4/9.8/$E$22</f>
+        <v>0.25814192144268183</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
         <f t="shared" si="5"/>
-        <v>0.4939591836734693</v>
-      </c>
-      <c r="D40">
+        <v>0.41799241186584818</v>
+      </c>
+      <c r="C42" s="1">
         <f t="shared" si="6"/>
-        <v>0.43857258812615951</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <f t="shared" si="4"/>
-        <v>0.71015204684530608</v>
-      </c>
-      <c r="C41">
+        <v>0.41836538577039961</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="7"/>
+        <v>0.31940760413174496</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
         <f t="shared" si="5"/>
-        <v>0.71078571428571435</v>
-      </c>
-      <c r="D41">
+        <v>0.55742230135000692</v>
+      </c>
+      <c r="C43" s="1">
         <f t="shared" si="6"/>
-        <v>0.54266048237476805</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <f t="shared" si="4"/>
-        <v>0.94703773806299429</v>
-      </c>
-      <c r="C42">
+        <v>0.5332676668788815</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="7"/>
+        <v>0.33799382247561816</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
         <f t="shared" si="5"/>
-        <v>0.90599999999999992</v>
-      </c>
-      <c r="D42">
+        <v>0.69693719896193507</v>
+      </c>
+      <c r="C44" s="1">
         <f t="shared" si="6"/>
-        <v>0.57423770871985158</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <f t="shared" si="4"/>
-        <v>1.1840678546200434</v>
-      </c>
-      <c r="C43">
+        <v>0.63427788922389461</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="7"/>
+        <v>0.31940760413174496</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
         <f t="shared" si="5"/>
-        <v>1.077612244897959</v>
-      </c>
-      <c r="D43">
+        <v>0.83655845394528183</v>
+      </c>
+      <c r="C45" s="1">
         <f t="shared" si="6"/>
-        <v>0.54266048237476805</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <f t="shared" si="4"/>
-        <v>1.4212786680100156</v>
-      </c>
-      <c r="C44">
+        <v>0.72245912863818196</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="7"/>
+        <v>0.26640246292884767</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
         <f t="shared" si="5"/>
-        <v>1.2274285714285713</v>
-      </c>
-      <c r="D44">
+        <v>0.97630748053636174</v>
+      </c>
+      <c r="C46" s="1">
         <f t="shared" si="6"/>
-        <v>0.45260691094619659</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <f t="shared" si="4"/>
-        <v>1.6587065601463586</v>
-      </c>
-      <c r="C45">
+        <v>0.79656812694446788</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1913692110961748</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
         <f t="shared" si="5"/>
-        <v>1.3533367346938776</v>
-      </c>
-      <c r="D45">
+        <v>1.1162057711480828</v>
+      </c>
+      <c r="C47" s="1">
         <f t="shared" si="6"/>
-        <v>0.32512847866419292</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <f t="shared" si="4"/>
-        <v>1.8963880457613622</v>
-      </c>
-      <c r="C46">
+        <v>0.85656284159569496</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1005032547483508</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
         <f t="shared" si="5"/>
-        <v>1.455265306122449</v>
-      </c>
-      <c r="D46">
+        <v>1.2562749096556844</v>
+      </c>
+      <c r="C48" s="1">
         <f t="shared" si="6"/>
-        <v>0.1707509276437848</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <f t="shared" si="4"/>
-        <v>2.1343597949780828</v>
-      </c>
-      <c r="C47">
+        <v>0.90491177071196061</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3767569143609698E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
         <f t="shared" si="5"/>
-        <v>1.537408163265306</v>
-      </c>
-      <c r="D47">
+        <v>1.3965365848018203</v>
+      </c>
+      <c r="C49" s="1">
         <f t="shared" si="6"/>
-        <v>2.3390538033395175E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <f t="shared" si="4"/>
-        <v>2.3726586560850351</v>
-      </c>
-      <c r="C48">
+        <v>0.94344676812934702</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.1005032547483508</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
         <f t="shared" si="5"/>
-        <v>1.6028775510204081</v>
-      </c>
-      <c r="D48">
+        <v>1.5370126037388023</v>
+      </c>
+      <c r="C50" s="1">
         <f t="shared" si="6"/>
-        <v>-0.1707509276437848</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <f t="shared" si="4"/>
-        <v>2.6113216785439093</v>
-      </c>
-      <c r="C49">
+        <v>0.97383151749570573</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.21064380789722839</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
         <f t="shared" si="5"/>
-        <v>1.6545000000000001</v>
-      </c>
-      <c r="D49">
+        <v>1.6777249057261177</v>
+      </c>
+      <c r="C51" s="1">
         <f t="shared" si="6"/>
-        <v>-0.35787523191094622</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <f t="shared" si="4"/>
-        <v>2.8503861362610925</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="5"/>
-        <v>1.6989591836734692</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="6"/>
-        <v>-0.54850811688311685</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <f>$G$22*TAN(RADIANS(B7))/$P$2/$H$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.32284949641764743</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <f>$G$23*TAN(RADIANS(B7))/$P$2/$H$4/9.8</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
         <f>G7/$P$2/$H$4/9.8</f>
         <v>0</v>
       </c>
-      <c r="D51">
-        <f>H7/$P$2/$H$4/9.8/$G$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <f t="shared" ref="B52:B63" si="7">$G$22*TAN(RADIANS(B8))/$P$2/$H$4/9.8</f>
-        <v>0.20176022370671565</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:C63" si="8">G8/$P$2/$H$4/9.8</f>
-        <v>0.21729795918367345</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ref="D52:D63" si="9">H8/$P$2/$H$4/9.8/$G$21</f>
-        <v>0.21729795918367345</v>
+      <c r="D52" s="1">
+        <f>H7/$P$2/$H$4/9.8/$G$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <f t="shared" si="7"/>
-        <v>0.40355118115364685</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="2">
+        <f>$G$23*TAN(RADIANS(B8))/$G$21/$H$4/9.8</f>
+        <v>0.12687172705470343</v>
+      </c>
+      <c r="C53" s="1">
+        <f>G8/$G$21/$H$4/9.8</f>
+        <v>0.1366422323518541</v>
+      </c>
+      <c r="D53" s="1">
+        <f>H8/$G$21/$H$4/9.8/$G$22</f>
+        <v>0.13664223235185413</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <f t="shared" ref="B54:B64" si="8">$G$23*TAN(RADIANS(B9))/$G$21/$H$4/9.8</f>
+        <v>0.2537627802314163</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54:C64" si="9">G9/$G$21/$H$4/9.8</f>
+        <v>0.26351073877869491</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" ref="D54:D64" si="10">H9/$G$21/$H$4/9.8/$G$22</f>
+        <v>0.23367156998281247</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
         <f t="shared" si="8"/>
-        <v>0.41905306122448976</v>
-      </c>
-      <c r="D53">
+        <v>0.38069249742958355</v>
+      </c>
+      <c r="C55" s="1">
         <f t="shared" si="9"/>
-        <v>0.37160074453234065</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <f t="shared" si="7"/>
-        <v>0.60540362481030452</v>
-      </c>
-      <c r="C54">
+        <v>0.38179643546466263</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="10"/>
+        <v>0.30043487569218746</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
         <f t="shared" si="8"/>
-        <v>0.60715918367346933</v>
-      </c>
-      <c r="D54">
+        <v>0.50768024011877577</v>
+      </c>
+      <c r="C56" s="1">
         <f t="shared" si="9"/>
-        <v>0.47777238582729509</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f t="shared" si="7"/>
-        <v>0.80734834462904881</v>
-      </c>
-      <c r="C55">
+        <v>0.4869563878280152</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="10"/>
+        <v>0.344498657460375</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
         <f t="shared" si="8"/>
-        <v>0.77439183673469381</v>
-      </c>
-      <c r="D55">
+        <v>0.63474540516192401</v>
+      </c>
+      <c r="C57" s="1">
         <f t="shared" si="9"/>
-        <v>0.54784566908196508</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <f t="shared" si="7"/>
-        <v>1.0094161868472169</v>
-      </c>
-      <c r="C56">
+        <v>0.58101310007802542</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="10"/>
+        <v>0.37921557642924986</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
         <f t="shared" si="8"/>
-        <v>0.92396734693877536</v>
-      </c>
-      <c r="D56">
+        <v>0.76190743668445315</v>
+      </c>
+      <c r="C58" s="1">
         <f t="shared" si="9"/>
-        <v>0.60305492255534132</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <f t="shared" si="7"/>
-        <v>1.2116380728622447</v>
-      </c>
-      <c r="C57">
+        <v>0.6676522524742311</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="10"/>
+        <v>0.40414054389408327</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
         <f t="shared" si="8"/>
-        <v>1.0617469387755101</v>
-      </c>
-      <c r="D57">
+        <v>0.88918583800477691</v>
+      </c>
+      <c r="C59" s="1">
         <f t="shared" si="9"/>
-        <v>0.64269233530545766</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <f t="shared" si="7"/>
-        <v>1.4140450182043638</v>
-      </c>
-      <c r="C58">
+        <v>0.74487187384501663</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="10"/>
+        <v>0.40369545518935418</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
         <f t="shared" si="8"/>
-        <v>1.1845469387755101</v>
-      </c>
-      <c r="D58">
+        <v>1.0166001836417466</v>
+      </c>
+      <c r="C60" s="1">
         <f t="shared" si="9"/>
-        <v>0.6419845243634914</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <f t="shared" si="7"/>
-        <v>1.6166681516316848</v>
-      </c>
-      <c r="C59">
+        <v>0.81048006242043458</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="10"/>
+        <v>0.38010575383870826</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
         <f t="shared" si="8"/>
-        <v>1.2888816326530612</v>
-      </c>
-      <c r="D59">
+        <v>1.1441701314148243</v>
+      </c>
+      <c r="C61" s="1">
         <f t="shared" si="9"/>
-        <v>0.60447054443927406</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <f t="shared" si="7"/>
-        <v>1.8195387343727272</v>
-      </c>
-      <c r="C60">
+        <v>0.86817276497885087</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="10"/>
+        <v>0.3440535687556458</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
         <f t="shared" si="8"/>
-        <v>1.3806285714285713</v>
-      </c>
-      <c r="D60">
+        <v>1.2719154346529529</v>
+      </c>
+      <c r="C62" s="1">
         <f t="shared" si="9"/>
-        <v>0.54713785813999871</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <f t="shared" si="7"/>
-        <v>2.0226881795418157</v>
-      </c>
-      <c r="C61">
+        <v>0.917883249147879</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="10"/>
+        <v>0.29464872253070828</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
         <f t="shared" si="8"/>
-        <v>1.4596816326530611</v>
-      </c>
-      <c r="D61">
+        <v>1.3998559545283435</v>
+      </c>
+      <c r="C63" s="1">
         <f t="shared" si="9"/>
-        <v>0.4685708435817324</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <f t="shared" si="7"/>
-        <v>2.2261480717531228</v>
-      </c>
-      <c r="C62">
+        <v>0.96185988255102439</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="10"/>
+        <v>0.24034790055374999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
         <f t="shared" si="8"/>
-        <v>1.5296163265306122</v>
-      </c>
-      <c r="D62">
+        <v>1.5280116725316863</v>
+      </c>
+      <c r="C64" s="1">
         <f t="shared" si="9"/>
-        <v>0.38221790866183608</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <f t="shared" si="7"/>
-        <v>2.4299501869596143</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="8"/>
-        <v>1.590269387755102</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="9"/>
-        <v>0.28878686432227618</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <f>$I$22*TAN(RADIANS(B7))/$P$2/$J$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="10"/>
+        <v>0.18159619152949996</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <f>$I$23*TAN(RADIANS(B7))/$P$2/$J$4/9.8</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
         <f>I7/$P$2/$J$4/9.8</f>
         <v>0</v>
       </c>
-      <c r="D64">
-        <f>J7/$P$2/$J$4/9.8/$I$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <f t="shared" ref="B65:B76" si="10">$I$22*TAN(RADIANS(B8))/$P$2/$J$4/9.8</f>
-        <v>0.19322094993587538</v>
-      </c>
-      <c r="C65">
-        <f t="shared" ref="C65:C76" si="11">I8/$P$2/$J$4/9.8</f>
-        <v>0.20364532019704432</v>
-      </c>
-      <c r="D65">
-        <f t="shared" ref="D65:D76" si="12">J8/$P$2/$J$4/9.8/$I$21</f>
-        <v>0.20364532019704432</v>
+      <c r="D65" s="1">
+        <f>J7/$P$2/$J$4/9.8/$I$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <f t="shared" si="10"/>
-        <v>0.38647133284109642</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="2">
+        <f>$I$23*TAN(RADIANS(B8))/$I$21/$J$4/9.8</f>
+        <v>0.12612461005483769</v>
+      </c>
+      <c r="C66" s="1">
+        <f>I8/$I$21/$J$4/9.8</f>
+        <v>0.13292909805002415</v>
+      </c>
+      <c r="D66" s="1">
+        <f>J8/$I$21/$J$4/9.8/$I$22</f>
+        <v>0.13292909805002412</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <f t="shared" ref="B67:B77" si="11">$I$23*TAN(RADIANS(B9))/$I$21/$J$4/9.8</f>
+        <v>0.25226843242481362</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C77" si="12">I9/$I$21/$J$4/9.8</f>
+        <v>0.25905050644249988</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" ref="D67:D77" si="13">J9/$I$21/$J$4/9.8/$I$22</f>
+        <v>0.23881624723202866</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
         <f t="shared" si="11"/>
-        <v>0.3968613652357495</v>
-      </c>
-      <c r="D66">
+        <v>0.37845069113314728</v>
+      </c>
+      <c r="C68" s="1">
         <f t="shared" si="12"/>
-        <v>0.36586279339321931</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <f t="shared" si="10"/>
-        <v>0.57978059962160777</v>
-      </c>
-      <c r="C67">
+        <v>0.37608580812604792</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="13"/>
+        <v>0.32385177319050001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
         <f t="shared" si="11"/>
-        <v>0.57615763546798027</v>
-      </c>
-      <c r="D67">
+        <v>0.5046906336343846</v>
+      </c>
+      <c r="C69" s="1">
         <f t="shared" si="12"/>
-        <v>0.49613590263691681</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <f t="shared" si="10"/>
-        <v>0.77317823707978417</v>
-      </c>
-      <c r="C68">
+        <v>0.48221135074301213</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="13"/>
+        <v>0.38249696350668716</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
         <f t="shared" si="11"/>
-        <v>0.7387403237156932</v>
-      </c>
-      <c r="D68">
+        <v>0.63100754256800917</v>
+      </c>
+      <c r="C70" s="1">
         <f t="shared" si="12"/>
-        <v>0.58597942625325994</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <f t="shared" si="10"/>
-        <v>0.96669378592077926</v>
-      </c>
-      <c r="C69">
+        <v>0.57801970647006129</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="13"/>
+        <v>0.41833569092213474</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
         <f t="shared" si="11"/>
-        <v>0.8855172413793102</v>
-      </c>
-      <c r="D69">
+        <v>0.75742074755768141</v>
+      </c>
+      <c r="C71" s="1">
         <f t="shared" si="12"/>
-        <v>0.64088380179658078</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <f t="shared" si="10"/>
-        <v>1.1603568588287785</v>
-      </c>
-      <c r="C70">
+        <v>0.66789315326488907</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="13"/>
+        <v>0.453522805111847</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
         <f t="shared" si="11"/>
-        <v>1.0232019704433497</v>
-      </c>
-      <c r="D70">
+        <v>0.88394963707147689</v>
+      </c>
+      <c r="C72" s="1">
         <f t="shared" si="12"/>
-        <v>0.69478991596638651</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <f t="shared" si="10"/>
-        <v>1.3541971586367003</v>
-      </c>
-      <c r="C71">
+        <v>0.74925928477916348</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="13"/>
+        <v>0.47730668785118952</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
         <f t="shared" si="11"/>
-        <v>1.1478536242083039</v>
-      </c>
-      <c r="D71">
+        <v>1.0106136703586266</v>
+      </c>
+      <c r="C73" s="1">
         <f t="shared" si="12"/>
-        <v>0.73122645609968118</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <f t="shared" si="10"/>
-        <v>1.5482444966130977</v>
-      </c>
-      <c r="C72">
+        <v>0.81772663588966243</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="13"/>
+        <v>0.46166797043353974</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
         <f t="shared" si="11"/>
-        <v>1.2527445460942999</v>
-      </c>
-      <c r="D72">
+        <v>1.1374323894784348</v>
+      </c>
+      <c r="C74" s="1">
         <f t="shared" si="12"/>
-        <v>0.70726818313532303</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <f t="shared" si="10"/>
-        <v>1.7425288108902734</v>
-      </c>
-      <c r="C73">
+        <v>0.87624888031420112</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="13"/>
+        <v>0.42843569592103364</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="2">
         <f t="shared" si="11"/>
-        <v>1.3423997185080929</v>
-      </c>
-      <c r="D73">
+        <v>1.2644254314372549</v>
+      </c>
+      <c r="C75" s="1">
         <f t="shared" si="12"/>
-        <v>0.65635685308606206</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <f t="shared" si="10"/>
-        <v>1.9370801850579393</v>
-      </c>
-      <c r="C74">
+        <v>0.92760054204276632</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="13"/>
+        <v>0.38933890237690894</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2">
         <f t="shared" si="11"/>
-        <v>1.4210696692470091</v>
-      </c>
-      <c r="D74">
+        <v>1.3916125404496464</v>
+      </c>
+      <c r="C76" s="1">
         <f t="shared" si="12"/>
-        <v>0.59646117067516657</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <f t="shared" si="10"/>
-        <v>2.1319288669471197</v>
-      </c>
-      <c r="C75">
+        <v>0.96770711316291147</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="13"/>
+        <v>0.31929048061035209</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2">
         <f t="shared" si="11"/>
-        <v>1.4825123152709359</v>
-      </c>
-      <c r="D75">
+        <v>1.5190135803401184</v>
+      </c>
+      <c r="C77" s="1">
         <f t="shared" si="12"/>
-        <v>0.48914807302231239</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <f t="shared" si="10"/>
-        <v>2.3271052876294296</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="11"/>
-        <v>1.5319845179451088</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="12"/>
-        <v>0.36636192407997681</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <f>$K$22*TAN(RADIANS(B7))/$P$2/$L$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="13"/>
+        <v>0.2391420538448964</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2">
+        <f>$K$23*TAN(RADIANS(B7))/$P$2/$L$4/9.8</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
         <f>K7/$P$2/$L$4/9.8</f>
         <v>0</v>
       </c>
-      <c r="D77">
-        <f>L7/$P$2/$L$4/9.8/$K$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <f t="shared" ref="B78:B89" si="13">$K$22*TAN(RADIANS(B8))/$P$2/$L$4/9.8</f>
-        <v>0.18152534533244374</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ref="C78:C89" si="14">K8/$P$2/$L$4/9.8</f>
-        <v>0.19289005924950625</v>
-      </c>
-      <c r="D78">
-        <f t="shared" ref="D78:D89" si="15">L8/$P$2/$L$4/9.8/$K$21</f>
-        <v>0.19289005924950622</v>
+      <c r="D78" s="1">
+        <f>L7/$P$2/$L$4/9.8/$K$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <f t="shared" si="13"/>
-        <v>0.36307834206566159</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="2">
+        <f>$K$23*TAN(RADIANS(B8))/$K$21/$L$4/9.8</f>
+        <v>0.12300352391487804</v>
+      </c>
+      <c r="C79" s="1">
+        <f>K8/$K$21/$L$4/9.8</f>
+        <v>0.13070437614310568</v>
+      </c>
+      <c r="D79" s="1">
+        <f>L8/$K$21/$L$4/9.8/$K$22</f>
+        <v>0.1307043761431057</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
+        <f t="shared" ref="B80:B90" si="14">$K$23*TAN(RADIANS(B9))/$K$21/$L$4/9.8</f>
+        <v>0.24602578471594772</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" ref="C80:C90" si="15">K9/$K$21/$L$4/9.8</f>
+        <v>0.25370477762412458</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" ref="D80:D90" si="16">L9/$K$21/$L$4/9.8/$K$22</f>
+        <v>0.23019576693860411</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
         <f t="shared" si="14"/>
-        <v>0.37441079657669518</v>
-      </c>
-      <c r="D79">
+        <v>0.36908553070775313</v>
+      </c>
+      <c r="C81" s="1">
         <f t="shared" si="15"/>
-        <v>0.3397168207677872</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <f t="shared" si="13"/>
-        <v>0.54468665845132991</v>
-      </c>
-      <c r="C80">
+        <v>0.36969710487576396</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="16"/>
+        <v>0.30757795977954727</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="2">
         <f t="shared" si="14"/>
-        <v>0.54558920342330475</v>
-      </c>
-      <c r="D80">
+        <v>0.49220153304633218</v>
+      </c>
+      <c r="C82" s="1">
         <f t="shared" si="15"/>
-        <v>0.45391541305978345</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <f t="shared" si="13"/>
-        <v>0.72637799646475487</v>
-      </c>
-      <c r="C81">
+        <v>0.47453272070303781</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="16"/>
+        <v>0.36252581940189771</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
         <f t="shared" si="14"/>
-        <v>0.7003028308097432</v>
-      </c>
-      <c r="D81">
+        <v>0.61539259720197192</v>
+      </c>
+      <c r="C83" s="1">
         <f t="shared" si="15"/>
-        <v>0.53500601010746152</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <f t="shared" si="13"/>
-        <v>0.90818010872130361</v>
-      </c>
-      <c r="C82">
+        <v>0.56962126957219972</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="16"/>
+        <v>0.4145474616479099</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="2">
         <f t="shared" si="14"/>
-        <v>0.84063199473337713</v>
-      </c>
-      <c r="D82">
+        <v>0.73867757446646354</v>
+      </c>
+      <c r="C84" s="1">
         <f t="shared" si="15"/>
-        <v>0.6117781729928371</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <f t="shared" si="13"/>
-        <v>1.0901208154585065</v>
-      </c>
-      <c r="C83">
+        <v>0.65814337333273853</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="16"/>
+        <v>0.45486423438856938</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="2">
         <f t="shared" si="14"/>
-        <v>0.97127057274522699</v>
-      </c>
-      <c r="D83">
+        <v>0.86207537351984598</v>
+      </c>
+      <c r="C85" s="1">
         <f t="shared" si="15"/>
-        <v>0.67127659922900318</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <f t="shared" si="13"/>
-        <v>1.2722280216059505</v>
-      </c>
-      <c r="C84">
+        <v>0.73719944684837402</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="16"/>
+        <v>0.46786964495007249</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="2">
         <f t="shared" si="14"/>
-        <v>1.0879394338380513</v>
-      </c>
-      <c r="D84">
+        <v>0.98560497207176034</v>
+      </c>
+      <c r="C86" s="1">
         <f t="shared" si="15"/>
-        <v>0.69046963995034716</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <f t="shared" si="13"/>
-        <v>1.454529733965283</v>
-      </c>
-      <c r="C85">
+        <v>0.80495606013293486</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="16"/>
+        <v>0.45714018123683242</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="2">
         <f t="shared" si="14"/>
-        <v>1.1879328505595785</v>
-      </c>
-      <c r="D85">
+        <v>1.1092854285926976</v>
+      </c>
+      <c r="C87" s="1">
         <f t="shared" si="15"/>
-        <v>0.67463538135523837</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <f t="shared" si="13"/>
-        <v>1.6370540785228769</v>
-      </c>
-      <c r="C86">
+        <v>0.86414328411473429</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="16"/>
+        <v>0.43145449537786379</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2">
         <f t="shared" si="14"/>
-        <v>1.2752797893350889</v>
-      </c>
-      <c r="D86">
+        <v>1.2331358941506341</v>
+      </c>
+      <c r="C88" s="1">
         <f t="shared" si="15"/>
-        <v>0.63672912593058417</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <f t="shared" si="13"/>
-        <v>1.8198293179180225</v>
-      </c>
-      <c r="C87">
+        <v>0.91569344693759214</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="16"/>
+        <v>0.39341366948546741</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="2">
         <f t="shared" si="14"/>
-        <v>1.3513561553653719</v>
-      </c>
-      <c r="D87">
+        <v>1.3571756243687718</v>
+      </c>
+      <c r="C89" s="1">
         <f t="shared" si="15"/>
-        <v>0.58058948182065317</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <f t="shared" si="13"/>
-        <v>2.0028838690898456</v>
-      </c>
-      <c r="C88">
+        <v>0.96271133514743279</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="16"/>
+        <v>0.36024987255363466</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="2">
         <f t="shared" si="14"/>
-        <v>1.4207439104674129</v>
-      </c>
-      <c r="D88">
+        <v>1.4814239915203888</v>
+      </c>
+      <c r="C90" s="1">
         <f t="shared" si="15"/>
-        <v>0.53164722798122621</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <f t="shared" si="13"/>
-        <v>2.1862463211265668</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="14"/>
-        <v>1.4757735352205397</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="15"/>
-        <v>0.44575837075321217</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <f>$M$22*TAN(RADIANS(B7))/$P$2/$N$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="16"/>
+        <v>0.30205066029090838</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="2">
+        <f>$M$23*TAN(RADIANS(B7))/$P$2/$N$4/9.8</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
         <f>M7/$P$2/$N$4/9.8</f>
         <v>0</v>
       </c>
-      <c r="D90">
-        <f>N7/$P$2/$N$4/9.8/$M$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <f t="shared" ref="B91:B102" si="16">$M$22*TAN(RADIANS(B8))/$P$2/$N$4/9.8</f>
-        <v>0.17824000341404053</v>
-      </c>
-      <c r="C91">
-        <f t="shared" ref="C91:C102" si="17">M8/$P$2/$N$4/9.8</f>
-        <v>0.18867189952904237</v>
-      </c>
-      <c r="D91">
-        <f t="shared" ref="D91:D101" si="18">N8/$P$2/$N$4/9.8/$M$21</f>
-        <v>0.18867189952904237</v>
+      <c r="D91" s="1">
+        <f>N7/$P$2/$N$4/9.8/$M$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <f t="shared" si="16"/>
-        <v>0.35650715777914727</v>
-      </c>
-      <c r="C92">
+      <c r="B92" s="2">
+        <f>$M$23*TAN(RADIANS(B8))/$M$21/$N$4/9.8</f>
+        <v>0.12305443556837514</v>
+      </c>
+      <c r="C92" s="1">
+        <f>M8/$M$21/$N$4/9.8</f>
+        <v>0.13025647250593927</v>
+      </c>
+      <c r="D92" s="1">
+        <f>N8/$M$21/$N$4/9.8/$M$22</f>
+        <v>0.13025647250593927</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2">
+        <f t="shared" ref="B93:B103" si="17">$M$23*TAN(RADIANS(B9))/$M$21/$N$4/9.8</f>
+        <v>0.2461276157782146</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" ref="C93:C103" si="18">M9/$M$21/$N$4/9.8</f>
+        <v>0.25330778434806739</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" ref="D93:D103" si="19">N9/$M$21/$N$4/9.8/$M$22</f>
+        <v>0.22727508651036299</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="2">
         <f t="shared" si="17"/>
-        <v>0.36690737833594972</v>
-      </c>
-      <c r="D92">
+        <v>0.369238296694061</v>
+      </c>
+      <c r="C94" s="1">
         <f t="shared" si="18"/>
-        <v>0.32919993504032907</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <f t="shared" si="16"/>
-        <v>0.53482863059231167</v>
-      </c>
-      <c r="C93">
+        <v>0.36929699828324702</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="19"/>
+        <v>0.3060278503472873</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="2">
         <f t="shared" si="17"/>
-        <v>0.53491365777080069</v>
-      </c>
-      <c r="D93">
+        <v>0.49240525724140943</v>
+      </c>
+      <c r="C95" s="1">
         <f t="shared" si="18"/>
-        <v>0.44327053176708348</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <f t="shared" si="16"/>
-        <v>0.71323162246380789</v>
-      </c>
-      <c r="C94">
+        <v>0.47456084068878229</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="19"/>
+        <v>0.3650175631833103</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
         <f t="shared" si="17"/>
-        <v>0.68738461538461537</v>
-      </c>
-      <c r="D94">
+        <v>0.61564731067420653</v>
+      </c>
+      <c r="C96" s="1">
         <f t="shared" si="18"/>
-        <v>0.52871504718598306</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <f t="shared" si="16"/>
-        <v>0.8917433837274592</v>
-      </c>
-      <c r="C95">
+        <v>0.57009208039259895</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="19"/>
+        <v>0.41502407101892375</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2">
         <f t="shared" si="17"/>
-        <v>0.82575824175824175</v>
-      </c>
-      <c r="D95">
+        <v>0.73898331608686918</v>
+      </c>
+      <c r="C97" s="1">
         <f t="shared" si="18"/>
-        <v>0.60114770746494883</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <f t="shared" si="16"/>
-        <v>1.0703912311153905</v>
-      </c>
-      <c r="C96">
+        <v>0.65994849740752959</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="19"/>
+        <v>0.46023953618765212</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="2">
         <f t="shared" si="17"/>
-        <v>0.95591208791208782</v>
-      </c>
-      <c r="D96">
+        <v>0.86243218998581517</v>
+      </c>
+      <c r="C98" s="1">
         <f t="shared" si="18"/>
-        <v>0.66664071166928296</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <f t="shared" si="16"/>
-        <v>1.2492025645189826</v>
-      </c>
-      <c r="C97">
+        <v>0.74002028890006422</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="19"/>
+        <v>0.47790650602179102</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="2">
         <f t="shared" si="17"/>
-        <v>1.0718932496075353</v>
-      </c>
-      <c r="D97">
+        <v>0.98601291793563561</v>
+      </c>
+      <c r="C99" s="1">
         <f t="shared" si="18"/>
-        <v>0.69223069344448662</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <f t="shared" si="16"/>
-        <v>1.4282048838579413</v>
-      </c>
-      <c r="C98">
+        <v>0.80797076317477945</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="19"/>
+        <v>0.46772554035466013</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="2">
         <f t="shared" si="17"/>
-        <v>1.1703171114599686</v>
-      </c>
-      <c r="D98">
+        <v>1.1097445662951999</v>
+      </c>
+      <c r="C100" s="1">
         <f t="shared" si="18"/>
-        <v>0.67748392428589466</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <f t="shared" si="16"/>
-        <v>1.6074258060796303</v>
-      </c>
-      <c r="C99">
+        <v>0.86692128947231528</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="19"/>
+        <v>0.43897928435334937</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="2">
         <f t="shared" si="17"/>
-        <v>1.2557048665620094</v>
-      </c>
-      <c r="D99">
+        <v>1.2336462940591875</v>
+      </c>
+      <c r="C101" s="1">
         <f t="shared" si="18"/>
-        <v>0.63584598783810597</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <f t="shared" si="16"/>
-        <v>1.7868930823111118</v>
-      </c>
-      <c r="C100">
+        <v>0.91782561950508978</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="19"/>
+        <v>0.40154926351830939</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="2">
         <f t="shared" si="17"/>
-        <v>1.3294379905808478</v>
-      </c>
-      <c r="D100">
+        <v>1.3577373648207807</v>
+      </c>
+      <c r="C102" s="1">
         <f t="shared" si="18"/>
-        <v>0.58162992475504782</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <f t="shared" si="16"/>
-        <v>1.9666346151866863</v>
-      </c>
-      <c r="C101">
+        <v>0.96359269599597674</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="19"/>
+        <v>0.36980860585019537</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="2">
         <f t="shared" si="17"/>
-        <v>1.3957299843014128</v>
-      </c>
-      <c r="D101">
+        <v>1.4820371588715193</v>
+      </c>
+      <c r="C103" s="1">
         <f t="shared" si="18"/>
-        <v>0.53565470326061448</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <f t="shared" si="16"/>
-        <v>2.1466784763741007</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="17"/>
-        <v>1.4484646781789636</v>
-      </c>
-      <c r="D102">
-        <f>N19/$P$2/$N$4/9.8/$M$21</f>
-        <v>0.45368001587903067</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="19"/>
+        <v>0.31321441434761493</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4730,33 +4910,33 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D22:M22 D21 F21 H21 J21 L21" formula="1"/>
+    <ignoredError sqref="D23:M23 D22 F22 H22 J22 L22" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB2437-9327-458E-9801-F5D0CEEBD9E8}">
-  <dimension ref="B2:P63"/>
+  <dimension ref="B2:P116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
@@ -4775,7 +4955,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4790,7 +4970,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
@@ -4809,36 +4989,36 @@
       <c r="H4" s="2">
         <v>250</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -5243,618 +5423,907 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <f>D8/C8</f>
-        <v>1.1909252573152989E-2</v>
+        <f>C19/D21/9.8</f>
+        <v>0.9135238095238094</v>
       </c>
       <c r="D21">
         <f>D4</f>
         <v>150</v>
       </c>
       <c r="E21">
-        <f>F8/E8</f>
-        <v>1.8484467240878738E-2</v>
+        <f>E19/F21/9.8</f>
+        <v>0.8316989795918367</v>
       </c>
       <c r="F21">
-        <f>F4</f>
+        <f t="shared" ref="F21:Q21" si="0">F4</f>
         <v>200</v>
       </c>
       <c r="G21">
-        <f>H8/G8</f>
-        <v>2.3331694453135477E-2</v>
+        <f>G19/H21/9.8</f>
+        <v>0.69302040816326538</v>
       </c>
       <c r="H21">
-        <f>H4</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <f>(C8-C9)/RADIANS(-0.5)</f>
-        <v>20234.577492840152</v>
+        <f>D8/C8</f>
+        <v>1.1909252573152989E-2</v>
       </c>
       <c r="D22">
         <f>D4</f>
         <v>150</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:G22" si="0">(E8-E9)/RADIANS(-0.5)</f>
-        <v>23031.757448668828</v>
+        <f>F8/E8</f>
+        <v>1.8484467240878738E-2</v>
       </c>
       <c r="F22">
         <f>F4</f>
         <v>200</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>24629.163781493571</v>
+        <f>H8/G8</f>
+        <v>2.3331694453135477E-2</v>
       </c>
       <c r="H22">
         <f>H4</f>
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f>(C8-C9)/RADIANS(-0.5)</f>
+        <v>20234.577492840152</v>
+      </c>
+      <c r="D23">
+        <f>D4</f>
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:G23" si="1">(E8-E9)/RADIANS(-0.5)</f>
+        <v>23031.757448668828</v>
+      </c>
+      <c r="F23">
+        <f>F4</f>
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>24629.163781493571</v>
+      </c>
+      <c r="H23">
+        <f>H4</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>$C$22*TAN(RADIANS(B7))/$P$2/$D$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f>$C$23*TAN(RADIANS(B7))/$P$2/$D$4/9.8</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
         <f>C7/$P$2/$D$4/9.8</f>
         <v>0</v>
       </c>
-      <c r="D25">
-        <f>D7/$P$2/$D$4/9.8/$C$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f>$C$22*TAN(RADIANS(B8))/$P$2/$D$4/9.8</f>
-        <v>0.24025099671004005</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:C37" si="1">C8/$P$2/$D$4/9.8</f>
-        <v>0.25247619047619041</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:D37" si="2">D8/$P$2/$D$4/9.8/$C$21</f>
-        <v>0.25247619047619041</v>
+      <c r="D26" s="1">
+        <f>D7/$P$2/$D$4/9.8/$C$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f t="shared" ref="B27:B37" si="3">$C$22*TAN(RADIANS(B9))/$P$2/$D$4/9.8</f>
-        <v>0.48053859038445579</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>0.49272108843537404</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="2">
+        <f>$C$23*TAN(RADIANS(B8))/$C$21/$D$4/9.8</f>
+        <v>0.13149684452957783</v>
+      </c>
+      <c r="C27" s="1">
+        <f>C8/$C$21/$D$4/9.8</f>
+        <v>0.13818807339449543</v>
+      </c>
+      <c r="D27" s="1">
+        <f>D8/$C$21/$D$4/9.8/$C$22</f>
+        <v>0.1381880733944954</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f t="shared" ref="B28:B38" si="2">$C$23*TAN(RADIANS(B9))/$C$21/$D$4/9.8</f>
+        <v>0.26301371971626286</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:C38" si="3">C9/$C$21/$D$4/9.8</f>
+        <v>0.2696815798880019</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:D38" si="4">D9/$C$21/$D$4/9.8/$C$22</f>
+        <v>0.24010959359043543</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
         <f t="shared" si="2"/>
-        <v>0.43869166127989645</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28">
+        <v>0.39457066842394506</v>
+      </c>
+      <c r="C29" s="1">
         <f t="shared" si="3"/>
-        <v>0.72089940028999633</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>0.71575510204081627</v>
-      </c>
-      <c r="D28">
+        <v>0.39175503395686889</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30889098758769562</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
         <f t="shared" si="2"/>
-        <v>0.56435854341736691</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29">
+        <v>0.52618775794589068</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="3"/>
-        <v>0.96137009032704435</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>0.91900680272108837</v>
-      </c>
-      <c r="D29">
+        <v>0.50300101274871922</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.33890468678650004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
         <f t="shared" si="2"/>
-        <v>0.61919500107735392</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30">
+        <v>0.65788509225899328</v>
+      </c>
+      <c r="C31" s="1">
         <f t="shared" si="3"/>
-        <v>1.2019873914187169</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>1.0998775510204082</v>
-      </c>
-      <c r="D30">
+        <v>0.60199720004765878</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.33702883058657479</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
         <f t="shared" si="2"/>
-        <v>0.61576772247360467</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31">
+        <v>0.78968282432559878</v>
+      </c>
+      <c r="C32" s="1">
         <f t="shared" si="3"/>
-        <v>1.4427881239868845</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>1.2657687074829931</v>
-      </c>
-      <c r="D31">
+        <v>0.69279459073037064</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31076684378762093</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
         <f t="shared" si="2"/>
-        <v>0.56778582202111605</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32">
+        <v>0.92160116845892515</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="3"/>
-        <v>1.6838092205443826</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>1.4106666666666665</v>
-      </c>
-      <c r="D32">
+        <v>0.77210175145954962</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25699229938976298</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
         <f t="shared" si="2"/>
-        <v>0.46953716871363921</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
+        <v>1.0536604127682456</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" si="3"/>
-        <v>1.9250877484329545</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>1.5281360544217686</v>
-      </c>
-      <c r="D33">
+        <v>0.83639640176337438</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17820633899290134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
         <f t="shared" si="2"/>
-        <v>0.32559146735617317</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34">
+        <v>1.1858809317001733</v>
+      </c>
+      <c r="C35" s="1">
         <f t="shared" si="3"/>
-        <v>2.1666609327367734</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>1.6258503401360542</v>
-      </c>
-      <c r="D34">
+        <v>0.88987847015369959</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="4"/>
+        <v>8.7539955996512916E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
         <f t="shared" si="2"/>
-        <v>0.15993966817496225</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35">
+        <v>1.3182831986926062</v>
+      </c>
+      <c r="C36" s="1">
         <f t="shared" si="3"/>
-        <v>2.408566179401805</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>1.7062176870748296</v>
-      </c>
-      <c r="D35">
+        <v>0.93386601930179902</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.1255137199551662E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0563671622495148E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36">
+        <v>1.4508877989581461</v>
+      </c>
+      <c r="C37" s="1">
         <f t="shared" si="3"/>
-        <v>2.6508410985917212</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>1.7727482993197277</v>
-      </c>
-      <c r="D36">
+        <v>0.97028029310139419</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.10629851799576572</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
         <f t="shared" si="2"/>
-        <v>-0.19421245421245417</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37">
+        <v>1.5837154424140902</v>
+      </c>
+      <c r="C38" s="1">
         <f t="shared" si="3"/>
-        <v>2.8935235283116096</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>1.8270476190476188</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>-0.3655763843999138</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <f>$E$22*TAN(RADIANS(B7))/$P$2/$F$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.20009132799202958</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <f>$E$23*TAN(RADIANS(B7))/$E$21/$F$4/9.8</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
         <f>E7/$P$2/$F$4/9.8</f>
         <v>0</v>
       </c>
-      <c r="D38">
-        <f>F7/$P$2/$F$4/9.8/$E$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <f t="shared" ref="B39:B50" si="4">$E$22*TAN(RADIANS(B8))/$P$2/$F$4/9.8</f>
-        <v>0.20509704310546614</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:C50" si="5">E8/$P$2/$F$4/9.8</f>
-        <v>0.21087755102040812</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ref="D39:D50" si="6">F8/$P$2/$F$4/9.8/$E$21</f>
-        <v>0.21087755102040812</v>
+      <c r="D39" s="1">
+        <f>F7/$P$2/$F$4/9.8/$E$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <f t="shared" si="4"/>
-        <v>0.41022532824231983</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="2">
+        <f>$E$23*TAN(RADIANS(B8))/$E$21/$F$4/9.8</f>
+        <v>0.12330004493099127</v>
+      </c>
+      <c r="C40" s="1">
+        <f>E8/$E$21/$F$4/9.8</f>
+        <v>0.12677516517087595</v>
+      </c>
+      <c r="D40" s="1">
+        <f>F8/$E$21/$F$4/9.8/$E$22</f>
+        <v>0.12677516517087592</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <f t="shared" ref="B41:B51" si="5">$E$23*TAN(RADIANS(B9))/$E$21/$F$4/9.8</f>
+        <v>0.24661887191664064</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C51" si="6">E9/$E$21/$F$4/9.8</f>
+        <v>0.25007208014084764</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41:D51" si="7">F9/$E$21/$F$4/9.8/$E$22</f>
+        <v>0.22799617401149677</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
         <f t="shared" si="5"/>
-        <v>0.41596938775510195</v>
-      </c>
-      <c r="D40">
+        <v>0.36997527445748429</v>
+      </c>
+      <c r="C42" s="1">
         <f t="shared" si="6"/>
-        <v>0.3792483705524094</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <f t="shared" si="4"/>
-        <v>0.61541611648099881</v>
-      </c>
-      <c r="C41">
+        <v>0.36561501229963256</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="7"/>
+        <v>0.30598613164279481</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
         <f t="shared" si="5"/>
-        <v>0.60816326530612241</v>
-      </c>
-      <c r="D41">
+        <v>0.49338806896063986</v>
+      </c>
+      <c r="C43" s="1">
         <f t="shared" si="6"/>
-        <v>0.50897670691313168</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <f t="shared" si="4"/>
-        <v>0.82070070699470188</v>
-      </c>
-      <c r="C42">
+        <v>0.47282118604037709</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="7"/>
+        <v>0.34946138462024179</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
         <f t="shared" si="5"/>
-        <v>0.78648979591836732</v>
-      </c>
-      <c r="D42">
+        <v>0.61687610623019451</v>
+      </c>
+      <c r="C44" s="1">
         <f t="shared" si="6"/>
-        <v>0.58129335399081083</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <f t="shared" si="4"/>
-        <v>1.0261104561724763</v>
-      </c>
-      <c r="C43">
+        <v>0.56925521277444135</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="7"/>
+        <v>0.36870996990796634</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
         <f t="shared" si="5"/>
-        <v>0.94689795918367348</v>
-      </c>
-      <c r="D43">
+        <v>0.74045828300219996</v>
+      </c>
+      <c r="C45" s="1">
         <f t="shared" si="6"/>
-        <v>0.61331141147558488</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <f t="shared" si="4"/>
-        <v>1.2316767968065063</v>
-      </c>
-      <c r="C44">
+        <v>0.65907013551066462</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="7"/>
+        <v>0.36140878238503643</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
         <f t="shared" si="5"/>
-        <v>1.0962959183673466</v>
-      </c>
-      <c r="D44">
+        <v>0.86415355353930001</v>
+      </c>
+      <c r="C46" s="1">
         <f t="shared" si="6"/>
-        <v>0.60116663105032597</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <f t="shared" si="4"/>
-        <v>1.4374312573785908</v>
-      </c>
-      <c r="C45">
+        <v>0.7403397275063951</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="7"/>
+        <v>0.33519088173451489</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
         <f t="shared" si="5"/>
-        <v>1.2314795918367345</v>
-      </c>
-      <c r="D45">
+        <v>0.98798094130014802</v>
+      </c>
+      <c r="C47" s="1">
         <f t="shared" si="6"/>
-        <v>0.55755582861416808</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <f t="shared" si="4"/>
-        <v>1.6434054814710308</v>
-      </c>
-      <c r="C46">
+        <v>0.8115794445841743</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="7"/>
+        <v>0.2927112452374675</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
         <f t="shared" si="5"/>
-        <v>1.3499795918367348</v>
-      </c>
-      <c r="D46">
+        <v>1.1119595506989357</v>
+      </c>
+      <c r="C48" s="1">
         <f t="shared" si="6"/>
-        <v>0.48689528795811515</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <f t="shared" si="4"/>
-        <v>1.8496312473274039</v>
-      </c>
-      <c r="C47">
+        <v>0.87307760730739259</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="7"/>
+        <v>0.24127106041682411</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
         <f t="shared" si="5"/>
-        <v>1.4522755102040816</v>
-      </c>
-      <c r="D47">
+        <v>1.2361085789705613</v>
+      </c>
+      <c r="C49" s="1">
         <f t="shared" si="6"/>
-        <v>0.40132978950742598</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <f t="shared" si="4"/>
-        <v>2.0561404875890621</v>
-      </c>
-      <c r="C48">
+        <v>0.92393858158551789</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17688786135098655</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
         <f t="shared" si="5"/>
-        <v>1.5368775510204082</v>
-      </c>
-      <c r="D48">
+        <v>1.3604473281571974</v>
+      </c>
+      <c r="C50" s="1">
         <f t="shared" si="6"/>
-        <v>0.29423490757559567</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <f t="shared" si="4"/>
-        <v>2.2629653092335631</v>
-      </c>
-      <c r="C49">
+        <v>0.96551808751449275</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10719470772301813</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
         <f t="shared" si="5"/>
-        <v>1.6060408163265305</v>
-      </c>
-      <c r="D49">
+        <v>1.4849952172322973</v>
+      </c>
+      <c r="C51" s="1">
         <f t="shared" si="6"/>
-        <v>0.17830745806175871</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <f t="shared" si="4"/>
-        <v>2.4701380137417193</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="5"/>
-        <v>1.6633979591836734</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="6"/>
-        <v>6.0723902126295547E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <f>$G$22*TAN(RADIANS(B7))/$P$2/$H$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="7"/>
+        <v>3.6505937614650139E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <f>$G$23*TAN(RADIANS(B7))/$P$2/$H$4/9.8</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
         <f>G7/$P$2/$H$4/9.8</f>
         <v>0</v>
       </c>
-      <c r="D51">
-        <f>H7/$P$2/$H$4/9.8/$G$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <f t="shared" ref="B52:B63" si="7">$G$22*TAN(RADIANS(B8))/$P$2/$H$4/9.8</f>
-        <v>0.17545751519839933</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:C63" si="8">G8/$P$2/$H$4/9.8</f>
-        <v>0.18263673469387753</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ref="D52:D63" si="9">H8/$P$2/$H$4/9.8/$G$21</f>
-        <v>0.18263673469387753</v>
+      <c r="D52" s="1">
+        <f>H7/$P$2/$H$4/9.8/$G$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <f t="shared" si="7"/>
-        <v>0.35094175749687773</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="2">
+        <f>$G$23*TAN(RADIANS(B8))/$G$21/$H$4/9.8</f>
+        <v>0.12658899588788453</v>
+      </c>
+      <c r="C53" s="1">
+        <f>G8/$G$21/$H$4/9.8</f>
+        <v>0.13176865539784435</v>
+      </c>
+      <c r="D53" s="1">
+        <f>H8/$G$21/$H$4/9.8/$G$22</f>
+        <v>0.13176865539784435</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <f t="shared" ref="B54:B64" si="8">$G$23*TAN(RADIANS(B9))/$G$21/$H$4/9.8</f>
+        <v>0.2531972748298929</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54:C64" si="9">G9/$G$21/$H$4/9.8</f>
+        <v>0.25835443783497258</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" ref="D54:D64" si="10">H9/$G$21/$H$4/9.8/$G$22</f>
+        <v>0.23299323550231871</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
         <f t="shared" si="8"/>
-        <v>0.35808979591836737</v>
-      </c>
-      <c r="D53">
+        <v>0.37984413163133868</v>
+      </c>
+      <c r="C55" s="1">
         <f t="shared" si="9"/>
-        <v>0.32293813433419344</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <f t="shared" si="7"/>
-        <v>0.5264794702831429</v>
-      </c>
-      <c r="C54">
+        <v>0.37681842275752392</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="10"/>
+        <v>0.30468346181072442</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
         <f t="shared" si="8"/>
-        <v>0.52228571428571413</v>
-      </c>
-      <c r="D54">
+        <v>0.50654888461513548</v>
+      </c>
+      <c r="C56" s="1">
         <f t="shared" si="9"/>
-        <v>0.42230371412932988</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f t="shared" si="7"/>
-        <v>0.7020974295412562</v>
-      </c>
-      <c r="C55">
+        <v>0.48607691854643953</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="10"/>
+        <v>0.34633447357441088</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
         <f t="shared" si="8"/>
-        <v>0.67372244897959177</v>
-      </c>
-      <c r="D55">
+        <v>0.63333088741868404</v>
+      </c>
+      <c r="C57" s="1">
         <f t="shared" si="9"/>
-        <v>0.48003371647509574</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <f t="shared" si="7"/>
-        <v>0.87782246020259891</v>
-      </c>
-      <c r="C56">
+        <v>0.58407444490252658</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="10"/>
+        <v>0.36349973902853616</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
         <f t="shared" si="8"/>
-        <v>0.80955102040816318</v>
-      </c>
-      <c r="D56">
+        <v>0.76020954083655534</v>
+      </c>
+      <c r="C58" s="1">
         <f t="shared" si="9"/>
-        <v>0.50382547501759323</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <f t="shared" si="7"/>
-        <v>1.0536814525603164</v>
-      </c>
-      <c r="C57">
+        <v>0.67401495965604563</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="10"/>
+        <v>0.36602404277178985</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
         <f t="shared" si="8"/>
-        <v>0.93421224489795929</v>
-      </c>
-      <c r="D57">
+        <v>0.88720430472439882</v>
+      </c>
+      <c r="C59" s="1">
         <f t="shared" si="9"/>
-        <v>0.50732426303854872</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <f t="shared" si="7"/>
-        <v>1.229701378768618</v>
-      </c>
-      <c r="C58">
+        <v>0.75142234525001461</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="10"/>
+        <v>0.3465869039487362</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
         <f t="shared" si="8"/>
-        <v>1.0415020408163262</v>
-      </c>
-      <c r="D58">
+        <v>1.0143347099796329</v>
+      </c>
+      <c r="C60" s="1">
         <f t="shared" si="9"/>
-        <v>0.48038359527719132</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <f t="shared" si="7"/>
-        <v>1.4059093094485051</v>
-      </c>
-      <c r="C59">
+        <v>0.81640261499499378</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="10"/>
+        <v>0.31149908191750952</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
         <f t="shared" si="8"/>
-        <v>1.1315673469387755</v>
-      </c>
-      <c r="D59">
+        <v>1.1416203706146522</v>
+      </c>
+      <c r="C61" s="1">
         <f t="shared" si="9"/>
-        <v>0.43175044178590977</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <f t="shared" si="7"/>
-        <v>1.5823324304217288</v>
-      </c>
-      <c r="C60">
+        <v>0.87271335178750198</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="10"/>
+        <v>0.271867513148426</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
         <f t="shared" si="8"/>
-        <v>1.2096163265306121</v>
-      </c>
-      <c r="D60">
+        <v>1.2690809959384917</v>
+      </c>
+      <c r="C62" s="1">
         <f t="shared" si="9"/>
-        <v>0.37681946985690828</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <f t="shared" si="7"/>
-        <v>1.7589980595950736</v>
-      </c>
-      <c r="C61">
+        <v>0.92184463160374552</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="10"/>
+        <v>0.22895434951311272</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
         <f t="shared" si="8"/>
-        <v>1.2777142857142858</v>
-      </c>
-      <c r="D61">
+        <v>1.3967364028631288</v>
+      </c>
+      <c r="C63" s="1">
         <f t="shared" si="9"/>
-        <v>0.31734007350066462</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <f t="shared" si="7"/>
-        <v>1.9359336640173932</v>
-      </c>
-      <c r="C62">
+        <v>0.96403792920666687</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="10"/>
+        <v>0.1895752111183546</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
         <f t="shared" si="8"/>
-        <v>1.3361959183673466</v>
-      </c>
-      <c r="D62">
+        <v>1.5246065283508909</v>
+      </c>
+      <c r="C64" s="1">
         <f t="shared" si="9"/>
-        <v>0.26275898037375867</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <f t="shared" si="7"/>
-        <v>2.113166877132227</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="8"/>
-        <v>1.3860408163265308</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="9"/>
-        <v>0.20397934162170611</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="10"/>
+        <v>0.14716690823169207</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5877,27 +6346,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A97F5EC-C848-44C8-8F90-3BE4B7AB6A97}">
-  <dimension ref="B2:AC128"/>
+  <dimension ref="B2:AC129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -5921,39 +6390,39 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4" t="s">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
       <c r="AB3" s="2" t="s">
         <v>24</v>
       </c>
@@ -5962,7 +6431,7 @@
       </c>
     </row>
     <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
@@ -6005,16 +6474,16 @@
       <c r="P4" s="2">
         <v>300</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="4">
         <v>300</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="4">
         <v>350</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -6037,58 +6506,58 @@
       </c>
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="10" t="s">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10" t="s">
+      <c r="R5" s="9"/>
+      <c r="S5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="4" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4" t="s">
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Z5" s="4"/>
+      <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="2:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -6131,16 +6600,16 @@
       <c r="P6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="U6" s="2" t="s">
@@ -6208,16 +6677,16 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
         <v>0</v>
       </c>
       <c r="U7" s="1">
@@ -6285,16 +6754,16 @@
       <c r="P8" s="1">
         <v>7.61</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="4">
         <v>255.68</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="4">
         <v>6.87</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="4">
         <v>257.02999999999997</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="4">
         <v>9.84</v>
       </c>
       <c r="U8" s="1">
@@ -6362,16 +6831,16 @@
       <c r="P9" s="1">
         <v>14.35</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="4">
         <v>497.29</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="4">
         <v>12.71</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="4">
         <v>512.07000000000005</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="4">
         <v>18.809999999999999</v>
       </c>
       <c r="U9" s="1">
@@ -6439,16 +6908,16 @@
       <c r="P10" s="1">
         <v>19.93</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="4">
         <v>714.81</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="4">
         <v>17.27</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="4">
         <v>752.21</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="4">
         <v>26.42</v>
       </c>
       <c r="U10" s="1">
@@ -6516,16 +6985,16 @@
       <c r="P11" s="1">
         <v>24.51</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="4">
         <v>914.36</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="4">
         <v>20.94</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="4">
         <v>973.72</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="4">
         <v>32.6</v>
       </c>
       <c r="U11" s="1">
@@ -6593,16 +7062,16 @@
       <c r="P12" s="1">
         <v>28.08</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="4">
         <v>1097.6199999999999</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="4">
         <v>23.89</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="4">
         <v>1178.5899999999999</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="4">
         <v>37.93</v>
       </c>
       <c r="U12" s="1">
@@ -6670,16 +7139,16 @@
       <c r="P13" s="1">
         <v>30.4</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="4">
         <v>1265.0999999999999</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="4">
         <v>25.97</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="4">
         <v>1378.08</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="4">
         <v>42.16</v>
       </c>
       <c r="U13" s="1">
@@ -6747,16 +7216,16 @@
       <c r="P14" s="1">
         <v>32.01</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="4">
         <v>1417.22</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="4">
         <v>27.54</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="4">
         <v>1562.53</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="4">
         <v>44.97</v>
       </c>
       <c r="U14" s="1">
@@ -6824,16 +7293,16 @@
       <c r="P15" s="1">
         <v>32.76</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="4">
         <v>1545.86</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="4">
         <v>28.1</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="4">
         <v>1725.39</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="4">
         <v>46.58</v>
       </c>
       <c r="U15" s="1">
@@ -6901,16 +7370,16 @@
       <c r="P16" s="1">
         <v>33.08</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="4">
         <v>1656.44</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="4">
         <v>28.34</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="4">
         <v>1870.58</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="4">
         <v>47.42</v>
       </c>
       <c r="U16" s="1">
@@ -6978,16 +7447,16 @@
       <c r="P17" s="1">
         <v>33.08</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="4">
         <v>1748.69</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="4">
         <v>27.96</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="4">
         <v>2004.37</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="4">
         <v>48.17</v>
       </c>
       <c r="U17" s="1">
@@ -7055,16 +7524,16 @@
       <c r="P18" s="1">
         <v>33.08</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="4">
         <v>1833.64</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="4">
         <v>27.81</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="4">
         <v>2119.0500000000002</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="4">
         <v>48.55</v>
       </c>
       <c r="U18" s="1">
@@ -7132,16 +7601,16 @@
       <c r="P19" s="1">
         <v>32.57</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="4">
         <v>1911.66</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="4">
         <v>27.68</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="4">
         <v>2209.84</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="4">
         <v>47.38</v>
       </c>
       <c r="U19" s="1">
@@ -7164,1682 +7633,1671 @@
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <f>D8/C8</f>
-        <v>1.8196360727854428E-2</v>
+        <f>C19/D21/9.8</f>
+        <v>0.80582857142857134</v>
       </c>
       <c r="D21">
         <f>D4</f>
         <v>125</v>
       </c>
       <c r="E21">
-        <f>F8/E8</f>
-        <v>2.4930174821557877E-2</v>
+        <f>E19/F21/9.8</f>
+        <v>0.74893877551020416</v>
       </c>
       <c r="F21">
-        <f>F4</f>
+        <f t="shared" ref="F21:Z21" si="0">F4</f>
         <v>175</v>
       </c>
       <c r="G21">
-        <f>H8/G8</f>
-        <v>2.5152890116393767E-2</v>
+        <f>G19/H21/9.8</f>
+        <v>0.73048979591836727</v>
       </c>
       <c r="H21">
-        <f>H4</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="I21">
-        <f>J8/I8</f>
-        <v>2.8947254554108435E-2</v>
+        <f>I19/J21/9.8</f>
+        <v>0.77539229024943301</v>
       </c>
       <c r="J21">
-        <f>J4</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="K21">
-        <f>L8/K8</f>
-        <v>2.7185613575921318E-2</v>
+        <f>K19/L21/9.8</f>
+        <v>0.69006530612244898</v>
       </c>
       <c r="L21">
-        <f>L4</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="M21">
-        <f>N8/M8</f>
-        <v>2.8873008049942504E-2</v>
+        <f>M19/N21/9.8</f>
+        <v>0.69201113172541739</v>
       </c>
       <c r="N21">
-        <f>N4</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="O21">
-        <f>P8/O8</f>
-        <v>3.0516902594538237E-2</v>
+        <f>O19/P21/9.8</f>
+        <v>0.67696598639455785</v>
       </c>
       <c r="P21">
-        <f>P4</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="Q21" s="11">
-        <f>R8/Q8</f>
-        <v>2.6869524405506884E-2</v>
-      </c>
-      <c r="R21" s="11">
+      <c r="Q21">
+        <f>Q19/R21/9.8</f>
+        <v>0.6502244897959184</v>
+      </c>
+      <c r="R21">
         <f>R4</f>
         <v>300</v>
       </c>
-      <c r="S21" s="11">
-        <f t="shared" ref="S21:Z21" si="0">T8/S8</f>
-        <v>3.8283468855775597E-2</v>
-      </c>
-      <c r="T21" s="11">
-        <f t="shared" ref="T21:Z21" si="1">T4</f>
+      <c r="S21">
+        <f>S19/T21/9.8</f>
+        <v>0.64426822157434405</v>
+      </c>
+      <c r="T21">
+        <f>T4</f>
         <v>350</v>
       </c>
       <c r="U21">
-        <f t="shared" ref="U21:Z21" si="2">V8/U8</f>
-        <v>3.5711560473101867E-2</v>
+        <f>U19/V21/9.8</f>
+        <v>0.63676676384839648</v>
       </c>
       <c r="V21">
-        <f t="shared" ref="V21:Z21" si="3">V4</f>
+        <f>V4</f>
         <v>350</v>
       </c>
       <c r="W21">
-        <f t="shared" ref="W21:Z21" si="4">X8/W8</f>
-        <v>2.9491017964071858E-2</v>
+        <f>W19/X21/9.8</f>
+        <v>0.58682507288629737</v>
       </c>
       <c r="X21">
-        <f t="shared" ref="X21:Z21" si="5">X4</f>
+        <f>X4</f>
         <v>350</v>
       </c>
       <c r="Y21">
-        <f t="shared" ref="Y21:Z21" si="6">Z8/Y8</f>
-        <v>3.105265124621651E-2</v>
+        <f>Y19/Z21/9.8</f>
+        <v>0.58728435374149657</v>
       </c>
       <c r="Z21">
-        <f t="shared" ref="Z21" si="7">Z4</f>
+        <f>Z4</f>
         <v>375</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <f>(C8-C9)/RADIANS(-0.5)</f>
-        <v>16230.748420465961</v>
+        <f>D8/C8</f>
+        <v>1.8196360727854428E-2</v>
       </c>
       <c r="D22">
         <f>D4</f>
         <v>125</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:M22" si="8">(E8-E9)/RADIANS(-0.5)</f>
-        <v>21583.320142578112</v>
+        <f>F8/E8</f>
+        <v>2.4930174821557877E-2</v>
       </c>
       <c r="F22">
         <f>F4</f>
         <v>175</v>
       </c>
       <c r="G22">
-        <f t="shared" si="8"/>
-        <v>22435.881341732776</v>
+        <f>H8/G8</f>
+        <v>2.5152890116393767E-2</v>
       </c>
       <c r="H22">
         <f>H4</f>
         <v>200</v>
       </c>
       <c r="I22">
-        <f t="shared" si="8"/>
-        <v>25643.299078875119</v>
+        <f>J8/I8</f>
+        <v>2.8947254554108435E-2</v>
       </c>
       <c r="J22">
         <f>J4</f>
         <v>225</v>
       </c>
       <c r="K22">
-        <f t="shared" si="8"/>
-        <v>26304.492374456095</v>
+        <f>L8/K8</f>
+        <v>2.7185613575921318E-2</v>
       </c>
       <c r="L22">
         <f>L4</f>
         <v>250</v>
       </c>
       <c r="M22">
-        <f t="shared" si="8"/>
-        <v>27045.89976135538</v>
+        <f>N8/M8</f>
+        <v>2.8873008049942504E-2</v>
       </c>
       <c r="N22">
         <f>N4</f>
         <v>275</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:W22" si="9">(O8-O9)/RADIANS(-0.5)</f>
-        <v>27881.272226656121</v>
+        <f>P8/O8</f>
+        <v>3.0516902594538237E-2</v>
       </c>
       <c r="P22">
         <f>P4</f>
         <v>300</v>
       </c>
-      <c r="Q22" s="11">
-        <f t="shared" ref="Q22:R22" si="10">(Q8-Q9)/RADIANS(-0.5)</f>
-        <v>27686.466576311643</v>
-      </c>
-      <c r="R22" s="11">
+      <c r="Q22" s="5">
+        <f>R8/Q8</f>
+        <v>2.6869524405506884E-2</v>
+      </c>
+      <c r="R22" s="5">
         <f>R4</f>
         <v>300</v>
       </c>
-      <c r="S22" s="11">
-        <f t="shared" ref="S22:Z22" si="11">(S8-S9)/RADIANS(-0.5)</f>
+      <c r="S22" s="5">
+        <f t="shared" ref="S22" si="1">T8/S8</f>
+        <v>3.8283468855775597E-2</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" ref="T22" si="2">T4</f>
+        <v>350</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ref="U22" si="3">V8/U8</f>
+        <v>3.5711560473101867E-2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ref="V22" si="4">V4</f>
+        <v>350</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ref="W22" si="5">X8/W8</f>
+        <v>2.9491017964071858E-2</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22" si="6">X4</f>
+        <v>350</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ref="Y22" si="7">Z8/Y8</f>
+        <v>3.105265124621651E-2</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ref="Z22" si="8">Z4</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f>(C8-C9)/RADIANS(-0.5)</f>
+        <v>16230.748420465961</v>
+      </c>
+      <c r="D23">
+        <f>D4</f>
+        <v>125</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:M23" si="9">(E8-E9)/RADIANS(-0.5)</f>
+        <v>21583.320142578112</v>
+      </c>
+      <c r="F23">
+        <f>F4</f>
+        <v>175</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>22435.881341732776</v>
+      </c>
+      <c r="H23">
+        <f>H4</f>
+        <v>200</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>25643.299078875119</v>
+      </c>
+      <c r="J23">
+        <f>J4</f>
+        <v>225</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
+        <v>26304.492374456095</v>
+      </c>
+      <c r="L23">
+        <f>L4</f>
+        <v>250</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="9"/>
+        <v>27045.89976135538</v>
+      </c>
+      <c r="N23">
+        <f>N4</f>
+        <v>275</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23" si="10">(O8-O9)/RADIANS(-0.5)</f>
+        <v>27881.272226656121</v>
+      </c>
+      <c r="P23">
+        <f>P4</f>
+        <v>300</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" ref="Q23" si="11">(Q8-Q9)/RADIANS(-0.5)</f>
+        <v>27686.466576311643</v>
+      </c>
+      <c r="R23" s="5">
+        <f>R4</f>
+        <v>300</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" ref="S23" si="12">(S8-S9)/RADIANS(-0.5)</f>
         <v>29225.43121403304</v>
       </c>
-      <c r="T22" s="11">
-        <f t="shared" ref="T22:Z22" si="12">T4</f>
+      <c r="T23" s="5">
+        <f t="shared" ref="T23" si="13">T4</f>
         <v>350</v>
       </c>
-      <c r="U22">
-        <f t="shared" ref="U22:Z22" si="13">(U8-U9)/RADIANS(-0.5)</f>
+      <c r="U23">
+        <f t="shared" ref="U23" si="14">(U8-U9)/RADIANS(-0.5)</f>
         <v>29806.410418295687</v>
       </c>
-      <c r="V22">
-        <f t="shared" ref="V22:Z22" si="14">V4</f>
+      <c r="V23">
+        <f t="shared" ref="V23" si="15">V4</f>
         <v>350</v>
       </c>
-      <c r="W22">
-        <f t="shared" ref="W22:Z22" si="15">(W8-W9)/RADIANS(-0.5)</f>
+      <c r="W23">
+        <f t="shared" ref="W23" si="16">(W8-W9)/RADIANS(-0.5)</f>
         <v>29762.865625865739</v>
       </c>
-      <c r="X22">
-        <f t="shared" ref="X22:Z22" si="16">X4</f>
+      <c r="X23">
+        <f t="shared" ref="X23" si="17">X4</f>
         <v>350</v>
       </c>
-      <c r="Y22">
-        <f t="shared" ref="Y22:Z22" si="17">(Y8-Y9)/RADIANS(-0.5)</f>
+      <c r="Y23">
+        <f t="shared" ref="Y23" si="18">(Y8-Y9)/RADIANS(-0.5)</f>
         <v>29989.756912737554</v>
       </c>
-      <c r="Z22">
-        <f t="shared" ref="Z22" si="18">Z4</f>
+      <c r="Z23">
+        <f t="shared" ref="Z23" si="19">Z4</f>
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <f>$C$22*TAN(RADIANS(B7))/$AC$3/$D$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <f>C7/$P$2/$D$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <f>D7/$P$2/$D$4/9.8/$C$21</f>
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <f>$C$22*TAN(RADIANS(B8))/$P$2/$D$4/9.8</f>
-        <v>0.23125484997628323</v>
+        <f t="shared" ref="B26:B38" si="20">$C$23*TAN(RADIANS(B7))/$C$21/$D$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:C37" si="19">C8/$P$2/$D$4/9.8</f>
-        <v>0.24494693877551019</v>
+        <f t="shared" ref="C26:C38" si="21">C7/$C$21/$D$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D37" si="20">D8/$P$2/$D$4/9.8/$C$21</f>
-        <v>0.24494693877551019</v>
+        <f t="shared" ref="D26:D38" si="22">D7/$C$21/$D$4/9.8/$C$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <f t="shared" ref="B27:B37" si="21">$C$22*TAN(RADIANS(B9))/$P$2/$D$4/9.8</f>
-        <v>0.46254492655150753</v>
+        <f>$C$23*TAN(RADIANS(B8))/$C$21/$D$4/9.8</f>
+        <v>0.14348886238068914</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="19"/>
-        <v>0.47619591836734698</v>
+        <f>C8/$C$21/$D$4/9.8</f>
+        <v>0.15198452093927914</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="20"/>
-        <v>0.44054559318232789</v>
+        <f>D8/$C$21/$D$4/9.8/$C$22</f>
+        <v>0.15198452093927914</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
+        <f t="shared" si="20"/>
+        <v>0.28699958213910731</v>
+      </c>
+      <c r="C28" s="1">
         <f t="shared" si="21"/>
-        <v>0.69390547779187972</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="19"/>
-        <v>0.68909387755102036</v>
+        <v>0.29546974086755678</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="20"/>
-        <v>0.59397389549226287</v>
+        <f t="shared" si="22"/>
+        <v>0.27334944974793429</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
+        <f t="shared" si="20"/>
+        <v>0.43055402997297887</v>
+      </c>
+      <c r="C29" s="1">
         <f t="shared" si="21"/>
-        <v>0.92537179472594333</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="19"/>
-        <v>0.87911836734693882</v>
+        <v>0.42756853131268113</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="20"/>
-        <v>0.69536218883157663</v>
+        <f t="shared" si="22"/>
+        <v>0.36854854528132897</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
+        <f t="shared" si="20"/>
+        <v>0.57417410323727169</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="21"/>
-        <v>1.156979232895325</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0401142857142858</v>
+        <v>0.54547480600522735</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="20"/>
-        <v>0.740224265530388</v>
+        <f t="shared" si="22"/>
+        <v>0.43145788911333832</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
+        <f t="shared" si="20"/>
+        <v>0.71788173931599031</v>
+      </c>
+      <c r="C31" s="1">
         <f t="shared" si="21"/>
-        <v>1.3887632339891423</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="19"/>
-        <v>1.1736326530612244</v>
+        <v>0.6453694511416822</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="20"/>
-        <v>0.74381323166629276</v>
+        <f t="shared" si="22"/>
+        <v>0.45929388195936005</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
+        <f t="shared" si="20"/>
+        <v>0.86169892904587986</v>
+      </c>
+      <c r="C32" s="1">
         <f t="shared" si="21"/>
-        <v>1.6207593475902575</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="19"/>
-        <v>1.2788897959183674</v>
+        <v>0.7282148428794295</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="20"/>
-        <v>0.71869046871495856</v>
+        <f t="shared" si="22"/>
+        <v>0.46152076138704184</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
+        <f t="shared" si="20"/>
+        <v>1.0056477302095272</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="21"/>
-        <v>1.8530032530617988</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="19"/>
-        <v>1.3627102040816326</v>
+        <v>0.79352472800210716</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="20"/>
-        <v>0.67921184122000455</v>
+        <f t="shared" si="22"/>
+        <v>0.44593260539326957</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
+        <f t="shared" si="20"/>
+        <v>1.1497502811154972</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" si="21"/>
-        <v>2.0855307816026953</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="19"/>
-        <v>1.4359020408163263</v>
+        <v>0.84553356160220439</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="20"/>
-        <v>0.64421942139493149</v>
+        <f t="shared" si="22"/>
+        <v>0.42143693168877039</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
+        <f t="shared" si="20"/>
+        <v>1.2940288142833347</v>
+      </c>
+      <c r="C35" s="1">
         <f t="shared" si="21"/>
-        <v>2.318377938501337</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="19"/>
-        <v>1.5030040816326531</v>
+        <v>0.89094758595538626</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="20"/>
-        <v>0.60922700156985876</v>
+        <f t="shared" si="22"/>
+        <v>0.39972485726887336</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
+        <f t="shared" si="20"/>
+        <v>1.4385056702515036</v>
+      </c>
+      <c r="C36" s="1">
         <f t="shared" si="21"/>
-        <v>2.5515809256169315</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="19"/>
-        <v>1.563281632653061</v>
+        <v>0.9325830176064186</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="20"/>
-        <v>0.58410423861852434</v>
+        <f t="shared" si="22"/>
+        <v>0.37801278284897638</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
+        <f t="shared" si="20"/>
+        <v>1.5832033115266029</v>
+      </c>
+      <c r="C37" s="1">
         <f t="shared" si="21"/>
-        <v>2.7851761641186301</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="19"/>
-        <v>1.6116571428571427</v>
+        <v>0.9699839941649615</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="20"/>
-        <v>0.53655043731778429</v>
+        <f t="shared" si="22"/>
+        <v>0.36242462685520416</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <f>$E$22*TAN(RADIANS(B7))/$P$2/$F$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1.7281443366925269</v>
       </c>
       <c r="C38" s="1">
-        <f>E7/$P$2/$F$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D38" s="1">
-        <f>F7/$P$2/$F$4/9.8/$E$21</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>0.33291847443842104</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <f t="shared" ref="B39:B50" si="22">$E$22*TAN(RADIANS(B8))/$P$2/$F$4/9.8</f>
-        <v>0.21965572171416947</v>
+        <f t="shared" ref="B39:B51" si="23">$E$23*TAN(RADIANS(B7))/$E$21/$F$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" ref="C39:C50" si="23">E8/$P$2/$F$4/9.8</f>
-        <v>0.22546938775510203</v>
+        <f t="shared" ref="C39" si="24">E7/$E$21/$F$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ref="D39:D50" si="24">F8/$P$2/$F$4/9.8/$E$21</f>
-        <v>0.22546938775510203</v>
+        <f t="shared" ref="D39" si="25">F7/$E$21/$F$4/9.8/$E$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <f t="shared" si="22"/>
-        <v>0.43934490315476077</v>
+        <f>$E$23*TAN(RADIANS(B8))/$E$21/$F$4/9.8</f>
+        <v>0.14664464499419999</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="23"/>
-        <v>0.44511953352769673</v>
+        <f>E8/$E$21/$F$4/9.8</f>
+        <v>0.15052591421875849</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="24"/>
-        <v>0.41070979761199083</v>
+        <f>F8/$E$21/$F$4/9.8/$E$22</f>
+        <v>0.15052591421875852</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <f t="shared" si="22"/>
-        <v>0.65910102443872043</v>
+        <f t="shared" si="23"/>
+        <v>0.29331162808032146</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="23"/>
-        <v>0.650472303206997</v>
+        <f t="shared" ref="C41:C51" si="26">E9/$E$21/$F$4/9.8</f>
+        <v>0.29716683665127719</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="24"/>
-        <v>0.55618900838343643</v>
+        <f t="shared" ref="D41:D51" si="27">F9/$E$21/$F$4/9.8/$E$22</f>
+        <v>0.27419450764329867</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
-        <f t="shared" si="22"/>
-        <v>0.87895760649045596</v>
+        <f t="shared" si="23"/>
+        <v>0.440023300963231</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="23"/>
-        <v>0.83183673469387742</v>
+        <f t="shared" si="26"/>
+        <v>0.43426266904385591</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="24"/>
-        <v>0.65395478025234988</v>
+        <f t="shared" si="27"/>
+        <v>0.37131807470146033</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
-        <f t="shared" si="22"/>
-        <v>1.0989482315116517</v>
+        <f t="shared" si="23"/>
+        <v>0.58680204259131741</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="23"/>
-        <v>0.98236734693877548</v>
+        <f t="shared" si="26"/>
+        <v>0.55534361545588307</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="24"/>
-        <v>0.69652265221441279</v>
+        <f t="shared" si="27"/>
+        <v>0.43658761011996766</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <f t="shared" si="22"/>
-        <v>1.3191065635305554</v>
+        <f t="shared" si="23"/>
+        <v>0.7336702728223734</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="23"/>
-        <v>1.1053877551020408</v>
+        <f t="shared" si="26"/>
+        <v>0.65583955528911653</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="24"/>
-        <v>0.69465153696333304</v>
+        <f t="shared" si="27"/>
+        <v>0.46500640305338464</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <f t="shared" si="22"/>
-        <v>1.5394663690574948</v>
+        <f t="shared" si="23"/>
+        <v>0.88065046614253106</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="23"/>
-        <v>1.2014693877551019</v>
+        <f t="shared" si="26"/>
+        <v>0.73796937162788157</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="24"/>
-        <v>0.66985925988652728</v>
+        <f t="shared" si="27"/>
+        <v>0.46375722534202568</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <f t="shared" si="22"/>
-        <v>1.7600615378736326</v>
+        <f t="shared" si="23"/>
+        <v>1.027765165456118</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="23"/>
-        <v>1.2753702623906706</v>
+        <f t="shared" si="26"/>
+        <v>0.80211455665158848</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="24"/>
-        <v>0.63898585824371235</v>
+        <f t="shared" si="27"/>
+        <v>0.44720562066651898</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
-        <f t="shared" si="22"/>
-        <v>1.9809261039802499</v>
+        <f t="shared" si="23"/>
+        <v>1.1750369959644664</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="23"/>
-        <v>1.3391603498542271</v>
+        <f t="shared" si="26"/>
+        <v>0.85145161667042957</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="24"/>
-        <v>0.60858023541366746</v>
+        <f t="shared" si="27"/>
+        <v>0.42659418842909563</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
-        <f t="shared" si="22"/>
-        <v>2.2020942667362267</v>
+        <f t="shared" si="23"/>
+        <v>1.3224886791518915</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="23"/>
-        <v>1.3974227405247812</v>
+        <f t="shared" si="26"/>
+        <v>0.89403860078011221</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="24"/>
-        <v>0.58332017952409188</v>
+        <f t="shared" si="27"/>
+        <v>0.40629505061951199</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
-        <f t="shared" si="22"/>
-        <v>2.4236004122117896</v>
+        <f t="shared" si="23"/>
+        <v>1.4701430468973118</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="23"/>
-        <v>1.451801749271137</v>
+        <f t="shared" si="26"/>
+        <v>0.93293523197060158</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="24"/>
-        <v>0.55572122957066639</v>
+        <f t="shared" si="27"/>
+        <v>0.38943115151616564</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
-        <f t="shared" si="22"/>
-        <v>2.6454791347871058</v>
+        <f t="shared" si="23"/>
+        <v>1.6180230557302535</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="23"/>
-        <v>1.4978775510204083</v>
+        <f t="shared" si="26"/>
+        <v>0.96923927345203698</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="24"/>
-        <v>0.52718672199170125</v>
+        <f t="shared" si="27"/>
+        <v>0.37100578027362052</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
-        <f>$G$22*TAN(RADIANS(B7))/$P$2/$H$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1.7661518012503157</v>
       </c>
       <c r="C51" s="1">
-        <f>G7/$P$2/$H$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <f>H7/$P$2/$H$4/9.8/$G$21</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>0.35195582017539589</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B63" si="25">$G$22*TAN(RADIANS(B8))/$P$2/$H$4/9.8</f>
-        <v>0.19979078595760597</v>
+        <f t="shared" ref="B52:B64" si="28">$G$23*TAN(RADIANS(B7))/$G$21/$H$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ref="C52:C63" si="26">G8/$P$2/$H$4/9.8</f>
-        <v>0.20689795918367346</v>
+        <f t="shared" ref="C52" si="29">G7/$G$21/$H$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" ref="D52:D63" si="27">H8/$P$2/$H$4/9.8/$G$21</f>
-        <v>0.20689795918367343</v>
+        <f t="shared" ref="D52" si="30">H7/$G$21/$H$4/9.8/$G$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
-        <f t="shared" si="25"/>
-        <v>0.39961200565482763</v>
+        <f>$G$23*TAN(RADIANS(B8))/$G$21/$H$4/9.8</f>
+        <v>0.1367512503760783</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="26"/>
-        <v>0.40668367346938772</v>
+        <f>G8/$G$21/$H$4/9.8</f>
+        <v>0.14161591328155557</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="27"/>
-        <v>0.38134133653461377</v>
+        <f>H8/$G$21/$H$4/9.8/$G$22</f>
+        <v>0.14161591328155557</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
-        <f t="shared" si="25"/>
-        <v>0.59949411137775399</v>
+        <f t="shared" si="28"/>
+        <v>0.27352333180262833</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="26"/>
-        <v>0.59304081632653061</v>
+        <f t="shared" ref="C54:C64" si="31">G9/$G$21/$H$4/9.8</f>
+        <v>0.27836369223892277</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="27"/>
-        <v>0.52008467386954782</v>
+        <f t="shared" ref="D54:D64" si="32">H9/$G$21/$H$4/9.8/$G$22</f>
+        <v>0.26101756565620043</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
-        <f t="shared" si="25"/>
-        <v>0.79946759252944288</v>
+        <f t="shared" si="28"/>
+        <v>0.41033708802466817</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="26"/>
-        <v>0.76349999999999996</v>
+        <f t="shared" si="31"/>
+        <v>0.40591998658993128</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="27"/>
-        <v>0.62312797118847529</v>
+        <f t="shared" si="32"/>
+        <v>0.35598353103324365</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
-        <f t="shared" si="25"/>
-        <v>0.99956299424851602</v>
+        <f t="shared" si="28"/>
+        <v>0.54721338819275156</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="26"/>
-        <v>0.91157142857142859</v>
+        <f t="shared" si="31"/>
+        <v>0.52259456892216583</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="27"/>
-        <v>0.68600872348939568</v>
+        <f t="shared" si="32"/>
+        <v>0.42651380941268496</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
-        <f t="shared" si="25"/>
-        <v>1.1998109361000342</v>
+        <f t="shared" si="28"/>
+        <v>0.68417313960687953</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="26"/>
-        <v>1.0404081632653059</v>
+        <f t="shared" si="31"/>
+        <v>0.62394535396993911</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="27"/>
-        <v>0.71075534213685454</v>
+        <f t="shared" si="32"/>
+        <v>0.46955393991982447</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
-        <f t="shared" si="25"/>
-        <v>1.4002421308629998</v>
+        <f t="shared" si="28"/>
+        <v>0.82123730050988564</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="26"/>
-        <v>1.1453469387755102</v>
+        <f t="shared" si="31"/>
+        <v>0.71213052466893889</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="27"/>
-        <v>0.70669851940776318</v>
+        <f t="shared" si="32"/>
+        <v>0.48649231386134384</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
-        <f t="shared" si="25"/>
-        <v>1.6008874034390428</v>
+        <f t="shared" si="28"/>
+        <v>0.95842689294696037</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="26"/>
-        <v>1.225173469387755</v>
+        <f t="shared" si="31"/>
+        <v>0.78395820528580229</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="27"/>
-        <v>0.68398031212484989</v>
+        <f t="shared" si="32"/>
+        <v>0.48371553124798006</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
-        <f t="shared" si="25"/>
-        <v>1.8017777099071222</v>
+        <f t="shared" si="28"/>
+        <v>1.0957630157081231</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="26"/>
-        <v>1.2939795918367345</v>
+        <f t="shared" si="31"/>
+        <v>0.8385972509359112</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="27"/>
-        <v>0.6584223289315726</v>
+        <f t="shared" si="32"/>
+        <v>0.46816554861314247</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
-        <f t="shared" si="25"/>
-        <v>2.0029441567494035</v>
+        <f t="shared" si="28"/>
+        <v>1.2332668573706347</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="26"/>
-        <v>1.3571020408163263</v>
+        <f t="shared" si="31"/>
+        <v>0.88569313292730623</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="27"/>
-        <v>0.64016662665066015</v>
+        <f t="shared" si="32"/>
+        <v>0.45067181814895041</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
-        <f t="shared" si="25"/>
-        <v>2.2044180202738413</v>
+        <f t="shared" si="28"/>
+        <v>1.3709597094585793</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="26"/>
-        <v>1.4130306122448979</v>
+        <f t="shared" si="31"/>
+        <v>0.92889869810582781</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="27"/>
-        <v>0.62272228891556614</v>
+        <f t="shared" si="32"/>
+        <v>0.43817629638881317</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
-        <f t="shared" si="25"/>
-        <v>2.4062307662594722</v>
+        <f t="shared" si="28"/>
+        <v>1.5088629797370823</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="26"/>
-        <v>1.4609795918367345</v>
+        <f t="shared" si="31"/>
+        <v>0.96718025367380001</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="27"/>
-        <v>0.60040976390556222</v>
+        <f t="shared" si="32"/>
+        <v>0.42623613115134862</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
-        <f>$I$22*TAN(RADIANS(B7))/$P$2/$J$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1.6469982056589674</v>
       </c>
       <c r="C64" s="1">
-        <f>I7/$P$2/$J$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="D64" s="1">
-        <f>J7/$P$2/$J$4/9.8/$I$21</f>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>0.41096382677784749</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
-        <f t="shared" ref="B65:B76" si="28">$I$22*TAN(RADIANS(B8))/$P$2/$J$4/9.8</f>
-        <v>0.20298020932447144</v>
+        <f t="shared" ref="B65:B77" si="33">$I$23*TAN(RADIANS(B7))/$I$21/$J$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:C76" si="29">I8/$P$2/$J$4/9.8</f>
-        <v>0.20962358276643991</v>
+        <f t="shared" ref="C65" si="34">I7/$I$21/$J$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" ref="D65:D76" si="30">J8/$P$2/$J$4/9.8/$I$21</f>
-        <v>0.20962358276643989</v>
+        <f t="shared" ref="D65" si="35">J7/$I$21/$J$4/9.8/$I$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
-        <f t="shared" si="28"/>
-        <v>0.40599133822718131</v>
+        <f>$I$23*TAN(RADIANS(B8))/$I$21/$J$4/9.8</f>
+        <v>0.1308887203786715</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="29"/>
-        <v>0.41259863945578223</v>
+        <f>I8/$I$21/$J$4/9.8</f>
+        <v>0.1351725993425901</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="30"/>
-        <v>0.40358023109592611</v>
+        <f>J8/$I$21/$J$4/9.8/$I$22</f>
+        <v>0.1351725993425901</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
-        <f t="shared" si="28"/>
-        <v>0.60906432512891362</v>
+        <f t="shared" si="33"/>
+        <v>0.26179737878008785</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="29"/>
-        <v>0.60286621315192745</v>
+        <f t="shared" ref="C67:C77" si="36">I9/$I$21/$J$4/9.8</f>
+        <v>0.26605799712236949</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="30"/>
-        <v>0.56338296235285334</v>
+        <f t="shared" ref="D67:D77" si="37">J9/$I$21/$J$4/9.8/$I$22</f>
+        <v>0.26024261278513611</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
-        <f t="shared" si="28"/>
-        <v>0.81223014615995004</v>
+        <f t="shared" si="33"/>
+        <v>0.39274592537732483</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="29"/>
-        <v>0.77880272108843529</v>
+        <f t="shared" si="36"/>
+        <v>0.38874916653994174</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="30"/>
-        <v>0.68652506702730909</v>
+        <f t="shared" si="37"/>
+        <v>0.36328898896558598</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
-        <f t="shared" si="28"/>
-        <v>1.0155198340758878</v>
+        <f t="shared" si="33"/>
+        <v>0.52375433465985755</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="29"/>
-        <v>0.93664399092970529</v>
+        <f t="shared" si="36"/>
+        <v>0.50219916478528914</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="30"/>
-        <v>0.7698731582319025</v>
+        <f t="shared" si="37"/>
+        <v>0.44269531413993257</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
-        <f t="shared" si="28"/>
-        <v>1.2189644972468945</v>
+        <f t="shared" si="33"/>
+        <v>0.65484261763114071</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="29"/>
-        <v>1.0731065759637186</v>
+        <f t="shared" si="36"/>
+        <v>0.60398072221507371</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="30"/>
-        <v>0.80496709137067868</v>
+        <f t="shared" si="37"/>
+        <v>0.49644107112816721</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
-        <f t="shared" si="28"/>
-        <v>1.4225953387451273</v>
+        <f t="shared" si="33"/>
+        <v>0.78603083405354091</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="29"/>
-        <v>1.1844081632653058</v>
+        <f t="shared" si="36"/>
+        <v>0.69197655783920353</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="30"/>
-        <v>0.80872715563554765</v>
+        <f t="shared" si="37"/>
+        <v>0.51907086354426613</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
-        <f t="shared" si="28"/>
-        <v>1.626443675555278</v>
+        <f t="shared" si="33"/>
+        <v>0.91733910475657288</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="29"/>
-        <v>1.2736326530612245</v>
+        <f t="shared" si="36"/>
+        <v>0.76374770432931327</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="30"/>
-        <v>0.79776030152968003</v>
+        <f t="shared" si="37"/>
+        <v>0.52149548416027658</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
-        <f t="shared" si="28"/>
-        <v>1.8305409579334584</v>
+        <f t="shared" si="33"/>
+        <v>1.0487876240245269</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="29"/>
-        <v>1.3474829931972787</v>
+        <f t="shared" si="36"/>
+        <v>0.82128276814018519</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="30"/>
-        <v>0.77331988380803229</v>
+        <f t="shared" si="37"/>
+        <v>0.51442367403024569</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
-        <f t="shared" si="28"/>
-        <v>2.0349187889399927</v>
+        <f t="shared" si="33"/>
+        <v>1.1803966720797534</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="29"/>
-        <v>1.4169977324263037</v>
+        <f t="shared" si="36"/>
+        <v>0.86890404388971421</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="30"/>
-        <v>0.75514623986116614</v>
+        <f t="shared" si="37"/>
+        <v>0.49866364002617686</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
-        <f t="shared" si="28"/>
-        <v>2.2396089441720668</v>
+        <f t="shared" si="33"/>
+        <v>1.3121866276780927</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="29"/>
-        <v>1.4857777777777776</v>
+        <f t="shared" si="36"/>
+        <v>0.91372957291751966</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="30"/>
-        <v>0.74292603100034227</v>
+        <f t="shared" si="37"/>
+        <v>0.48694464038212576</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
-        <f t="shared" si="28"/>
-        <v>2.444643391722626</v>
+        <f t="shared" si="33"/>
+        <v>1.4441779808331698</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="29"/>
-        <v>1.550784580498866</v>
+        <f t="shared" si="36"/>
+        <v>0.95808134570168557</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="30"/>
-        <v>0.73665925722556092</v>
+        <f t="shared" si="37"/>
+        <v>0.47906462338009137</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
-        <f>$K$22*TAN(RADIANS(B7))/$P$2/$L$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1.576391345686593</v>
       </c>
       <c r="C77" s="1">
-        <f>K7/$P$2/$L$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D77" s="1">
-        <f>L7/$P$2/$L$4/9.8/$K$21</f>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>0.4750235890200738</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
-        <f t="shared" ref="B78:B89" si="31">$K$22*TAN(RADIANS(B8))/$P$2/$L$4/9.8</f>
-        <v>0.18739251204481722</v>
+        <f t="shared" ref="B78:B90" si="38">$K$23*TAN(RADIANS(B7))/$K$21/$L$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ref="C78:C89" si="32">K8/$P$2/$L$4/9.8</f>
-        <v>0.19337959183673467</v>
+        <f t="shared" ref="C78" si="39">K7/$K$21/$L$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78:D89" si="33">L8/$P$2/$L$4/9.8/$K$21</f>
-        <v>0.19337959183673464</v>
+        <f t="shared" ref="D78" si="40">L7/$K$21/$L$4/9.8/$K$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
-        <f t="shared" si="31"/>
-        <v>0.37481356922443709</v>
+        <f>$K$23*TAN(RADIANS(B8))/$K$21/$L$4/9.8</f>
+        <v>0.13577882439692257</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="32"/>
-        <v>0.38076734693877551</v>
+        <f>K8/$K$21/$L$4/9.8</f>
+        <v>0.140116877432482</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="33"/>
-        <v>0.363037152997845</v>
+        <f>L8/$K$21/$L$4/9.8/$K$22</f>
+        <v>0.14011687743248194</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
-        <f t="shared" si="31"/>
-        <v>0.56229173406921062</v>
+        <f t="shared" si="38"/>
+        <v>0.27157833171656953</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="32"/>
-        <v>0.55451428571428563</v>
+        <f t="shared" ref="C80:C90" si="41">K9/$K$21/$L$4/9.8</f>
+        <v>0.27589225509564308</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="33"/>
-        <v>0.49816264418810996</v>
+        <f t="shared" ref="D80:D90" si="42">L9/$K$21/$L$4/9.8/$K$22</f>
+        <v>0.26304550437246998</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
-        <f t="shared" si="31"/>
-        <v>0.74985560392311612</v>
+        <f t="shared" si="38"/>
+        <v>0.40741921748594212</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="32"/>
-        <v>0.71132244897959174</v>
+        <f t="shared" si="41"/>
+        <v>0.40178391870630403</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="33"/>
-        <v>0.59875606540752946</v>
+        <f t="shared" si="42"/>
+        <v>0.36095326034237196</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
-        <f t="shared" si="31"/>
-        <v>0.93753382840695354</v>
+        <f t="shared" si="38"/>
+        <v>0.54332220245692053</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="32"/>
-        <v>0.84821224489795899</v>
+        <f t="shared" si="41"/>
+        <v>0.51540226893639163</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="33"/>
-        <v>0.65851156040055758</v>
+        <f t="shared" si="42"/>
+        <v>0.43384014534218796</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
-        <f t="shared" si="31"/>
-        <v>1.1253551269493349</v>
+        <f t="shared" si="38"/>
+        <v>0.67930804525955435</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="32"/>
-        <v>0.96736326530612238</v>
+        <f t="shared" si="41"/>
+        <v>0.61458838560088946</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="33"/>
-        <v>0.68974056280897422</v>
+        <f t="shared" si="42"/>
+        <v>0.47713713075998904</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
-        <f t="shared" si="31"/>
-        <v>1.3133483064083014</v>
+        <f t="shared" si="38"/>
+        <v>0.81539755510447731</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="32"/>
-        <v>1.0650775510204082</v>
+        <f t="shared" si="41"/>
+        <v>0.70092153360226173</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="33"/>
-        <v>0.69094167828622122</v>
+        <f t="shared" si="42"/>
+        <v>0.49976470102858861</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
-        <f t="shared" si="31"/>
-        <v>1.501542278806608</v>
+        <f t="shared" si="38"/>
+        <v>0.95161160455098537</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="32"/>
-        <v>1.1487999999999998</v>
+        <f t="shared" si="41"/>
+        <v>0.77172228597115911</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="33"/>
-        <v>0.68944028393966261</v>
+        <f t="shared" si="42"/>
+        <v>0.50063499219276564</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
-        <f t="shared" si="31"/>
-        <v>1.689966079203963</v>
+        <f t="shared" si="38"/>
+        <v>1.0879711423574787</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="32"/>
-        <v>1.2175510204081632</v>
+        <f t="shared" si="41"/>
+        <v>0.83238498574521191</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="33"/>
-        <v>0.68013163899100004</v>
+        <f t="shared" si="42"/>
+        <v>0.49954712823754432</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
-        <f t="shared" si="31"/>
-        <v>1.8786488837298145</v>
+        <f t="shared" si="38"/>
+        <v>1.2244972064311304</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="32"/>
-        <v>1.2710693877551018</v>
+        <f t="shared" si="41"/>
+        <v>0.88219985094578446</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="33"/>
-        <v>0.65460793509950554</v>
+        <f t="shared" si="42"/>
+        <v>0.49280237171517322</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
-        <f t="shared" si="31"/>
-        <v>2.0676200278006447</v>
+        <f t="shared" si="38"/>
+        <v>1.3612109368938894</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="32"/>
-        <v>1.3250204081632653</v>
+        <f t="shared" si="41"/>
+        <v>0.92097760637857407</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="33"/>
-        <v>0.64079510711116727</v>
+        <f t="shared" si="42"/>
+        <v>0.47430868447641406</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
-        <f t="shared" si="31"/>
-        <v>2.2569090245461432</v>
+        <f t="shared" si="38"/>
+        <v>1.4981335892821677</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="32"/>
-        <v>1.380130612244898</v>
+        <f t="shared" si="41"/>
+        <v>0.96006884885192756</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="33"/>
-        <v>0.63088590442388115</v>
+        <f t="shared" si="42"/>
+        <v>0.46430033608837967</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
-        <f>$M$22*TAN(RADIANS(B7))/$P$2/$N$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.6352865478978775</v>
       </c>
       <c r="C90" s="1">
-        <f>M7/$P$2/$N$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="D90" s="1">
-        <f>N7/$P$2/$N$4/9.8/$M$21</f>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>0.45712043398392016</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
-        <f t="shared" ref="B91:B102" si="34">$M$22*TAN(RADIANS(B8))/$P$2/$N$4/9.8</f>
-        <v>0.17515843525006536</v>
+        <f>$M$23*TAN(RADIANS(B7))/$P$2/$N$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ref="C91:C102" si="35">M8/$P$2/$N$4/9.8</f>
-        <v>0.18069016697588125</v>
+        <f>M7/$P$2/$N$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" ref="D91:D101" si="36">N8/$P$2/$N$4/9.8/$M$21</f>
-        <v>0.18069016697588125</v>
+        <f>N7/$P$2/$N$4/9.8/$M$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
-        <f t="shared" si="34"/>
-        <v>0.35034355204194628</v>
+        <f>$M$23*TAN(RADIANS(B8))/$M$21/$N$4/9.8</f>
+        <v>0.12655752719854105</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="35"/>
-        <v>0.3558441558441558</v>
+        <f>M8/$M$21/$N$4/9.8</f>
+        <v>0.13055437889081326</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="36"/>
-        <v>0.34081815278807759</v>
+        <f>N8/$M$21/$N$4/9.8/$M$22</f>
+        <v>0.13055437889081326</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
-        <f t="shared" si="34"/>
-        <v>0.52558204817732357</v>
+        <f t="shared" ref="B93:B103" si="43">$M$23*TAN(RADIANS(B9))/$M$21/$N$4/9.8</f>
+        <v>0.25313433265764201</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="35"/>
-        <v>0.51939146567717986</v>
+        <f t="shared" ref="C93:C103" si="44">M9/$M$21/$N$4/9.8</f>
+        <v>0.25710869343742798</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="36"/>
-        <v>0.47370124855839135</v>
+        <f t="shared" ref="D93:D103" si="45">N9/$M$21/$N$4/9.8/$M$22</f>
+        <v>0.24625192945834756</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
-        <f t="shared" si="34"/>
-        <v>0.70090065399866874</v>
+        <f t="shared" si="43"/>
+        <v>0.37974970638613142</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="35"/>
-        <v>0.67078293135435996</v>
+        <f t="shared" si="44"/>
+        <v>0.37527681410424835</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="36"/>
-        <v>0.57856837249318449</v>
+        <f t="shared" si="45"/>
+        <v>0.34226418249753743</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
-        <f t="shared" si="34"/>
-        <v>0.87632614871233916</v>
+        <f t="shared" si="43"/>
+        <v>0.50642296190459157</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="35"/>
-        <v>0.80707235621521323</v>
+        <f t="shared" si="44"/>
+        <v>0.48466195166678289</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="36"/>
-        <v>0.65130708835971984</v>
+        <f t="shared" si="45"/>
+        <v>0.41803400694625986</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
-        <f t="shared" si="34"/>
-        <v>1.0518853767750425</v>
+        <f t="shared" si="43"/>
+        <v>0.63317344803931275</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="35"/>
-        <v>0.92819294990723555</v>
+        <f t="shared" si="44"/>
+        <v>0.5831353855557998</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="36"/>
-        <v>0.68934712351253691</v>
+        <f t="shared" si="45"/>
+        <v>0.47059003713985881</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
-        <f t="shared" si="34"/>
-        <v>1.2276052643650115</v>
+        <f t="shared" si="43"/>
+        <v>0.7600205607620335</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="35"/>
-        <v>1.0327643784786642</v>
+        <f t="shared" si="44"/>
+        <v>0.67064885762237469</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="36"/>
-        <v>0.70733903203076132</v>
+        <f t="shared" si="45"/>
+        <v>0.49807516953792486</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
-        <f t="shared" si="34"/>
-        <v>1.4035128359594291</v>
+        <f t="shared" si="43"/>
+        <v>0.88698375509088789</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="35"/>
-        <v>1.1198367346938773</v>
+        <f t="shared" si="44"/>
+        <v>0.74620503278873118</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="36"/>
-        <v>0.7168490408189655</v>
+        <f t="shared" si="45"/>
+        <v>0.51107489432079378</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
-        <f t="shared" si="34"/>
-        <v>1.5796352310398583</v>
+        <f t="shared" si="43"/>
+        <v>1.0140825570681196</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="35"/>
-        <v>1.1964007421150278</v>
+        <f t="shared" si="44"/>
+        <v>0.80911757293683007</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="36"/>
-        <v>0.71556390449623519</v>
+        <f t="shared" si="45"/>
+        <v>0.51794617742031046</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
-        <f t="shared" si="34"/>
-        <v>1.7559997209477471</v>
+        <f t="shared" si="43"/>
+        <v>1.1413365758302865</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="35"/>
-        <v>1.2661150278293134</v>
+        <f t="shared" si="44"/>
+        <v>0.8644374976541177</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="36"/>
-        <v>0.71068038646985998</v>
+        <f t="shared" si="45"/>
+        <v>0.51701762565010534</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
-        <f t="shared" si="34"/>
-        <v>1.9326337259123905</v>
+        <f t="shared" si="43"/>
+        <v>1.2687655157868971</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="35"/>
-        <v>1.3282077922077922</v>
+        <f t="shared" si="44"/>
+        <v>0.91480828109835544</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="36"/>
-        <v>0.7060538957080309</v>
+        <f t="shared" si="45"/>
+        <v>0.51348912892332654</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
-        <f t="shared" si="34"/>
-        <v>2.1095648322741365</v>
+        <f t="shared" si="43"/>
+        <v>1.3963891889236535</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="35"/>
-        <v>1.3840222634508348</v>
+        <f t="shared" si="44"/>
+        <v>0.95967227354863627</v>
       </c>
       <c r="D102" s="1">
-        <f>N19/$P$2/$N$4/9.8/$M$21</f>
-        <v>0.70065632315256365</v>
+        <f t="shared" si="45"/>
+        <v>0.51014634255058888</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
-        <f>$O$22*TAN(RADIANS(B7))/$P$2/$P$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.5242275272467647</v>
       </c>
       <c r="C103" s="1">
-        <f>O7/$P$2/$P$4/9.8</f>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
-        <f>P7/$P$2/$P$4/9.8/$O$21</f>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>0.50624642511572826</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
-        <f t="shared" ref="B104:B115" si="37">$O$22*TAN(RADIANS(B8))/$P$2/$P$4/9.8</f>
-        <v>0.1655212085443421</v>
+        <f>$O$23*TAN(RADIANS(B7))/$P$2/$P$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" ref="C104:C115" si="38">O8/$P$2/$P$4/9.8</f>
-        <v>0.16963945578231293</v>
+        <f>O7/$P$2/$P$4/9.8</f>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" ref="D104:D115" si="39">P8/$P$2/$P$4/9.8/$O$21</f>
-        <v>0.16963945578231293</v>
+        <f>P7/$P$2/$P$4/9.8/$O$22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
-        <f t="shared" si="37"/>
-        <v>0.33106763061060696</v>
+        <f>$O$23*TAN(RADIANS(B8))/$O$21/$P$4/9.8</f>
+        <v>0.12225223413800212</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="38"/>
-        <v>0.33515646258503401</v>
+        <f>O8/$O$21/$P$4/9.8</f>
+        <v>0.12529392849247339</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="39"/>
-        <v>0.31988517614667417</v>
+        <f>P8/$O$21/$P$4/9.8/$O$22</f>
+        <v>0.12529392849247339</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
-        <f t="shared" si="37"/>
-        <v>0.49666449508596394</v>
+        <f t="shared" ref="B106:B116" si="46">$O$23*TAN(RADIANS(B9))/$O$21/$P$4/9.8</f>
+        <v>0.24452309071969386</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="38"/>
-        <v>0.49048979591836733</v>
+        <f t="shared" ref="C106:C116" si="47">O9/$O$21/$P$4/9.8</f>
+        <v>0.24754305926804265</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="39"/>
-        <v>0.44427258262043318</v>
+        <f t="shared" ref="D106:D116" si="48">P9/$O$21/$P$4/9.8/$O$22</f>
+        <v>0.23626384676307402</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
-        <f t="shared" si="37"/>
-        <v>0.66233706160797712</v>
+        <f t="shared" si="46"/>
+        <v>0.36683120353737514</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="38"/>
-        <v>0.63474829931972787</v>
+        <f t="shared" si="47"/>
+        <v>0.3622706352874972</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="39"/>
-        <v>0.54636833918850058</v>
+        <f t="shared" si="48"/>
+        <v>0.32813508473784431</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
-        <f t="shared" si="37"/>
-        <v>0.82811063598960266</v>
+        <f t="shared" si="46"/>
+        <v>0.48919522909526608</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="38"/>
-        <v>0.76663265306122441</v>
+        <f t="shared" si="47"/>
+        <v>0.46881845770444358</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="39"/>
-        <v>0.62594952935181947</v>
+        <f t="shared" si="48"/>
+        <v>0.40354194314724351</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
-        <f t="shared" si="37"/>
-        <v>0.99401058570406864</v>
+        <f t="shared" si="46"/>
+        <v>0.61163385800224879</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="38"/>
-        <v>0.88800680272108834</v>
+        <f t="shared" si="47"/>
+        <v>0.56622686255200272</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="39"/>
-        <v>0.67766615713302392</v>
+        <f t="shared" si="48"/>
+        <v>0.46231977819561809</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
-        <f t="shared" si="37"/>
-        <v>1.1600623554498068</v>
+        <f t="shared" si="46"/>
+        <v>0.73416582640883732</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="38"/>
-        <v>0.99636054421768694</v>
+        <f t="shared" si="47"/>
+        <v>0.65587254054705857</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="39"/>
-        <v>0.71355571348118729</v>
+        <f t="shared" si="48"/>
+        <v>0.50051713878727877</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
-        <f t="shared" si="37"/>
-        <v>1.3262914828157839</v>
+        <f t="shared" si="46"/>
+        <v>0.85680992750327378</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="38"/>
-        <v>1.088204081632653</v>
+        <f t="shared" si="47"/>
+        <v>0.73590148119862531</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="39"/>
-        <v>0.73027445091045606</v>
+        <f t="shared" si="48"/>
+        <v>0.5270247898875261</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
-        <f t="shared" si="37"/>
-        <v>1.4927236140678004</v>
+        <f t="shared" si="46"/>
+        <v>0.97958502308177864</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="38"/>
-        <v>1.1684829931972789</v>
+        <f t="shared" si="47"/>
+        <v>0.80373615772655094</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="39"/>
-        <v>0.73740777888027742</v>
+        <f t="shared" si="48"/>
+        <v>0.53937307456155437</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
-        <f t="shared" si="37"/>
-        <v>1.6593845200766035</v>
+        <f t="shared" si="46"/>
+        <v>1.1025100552081448</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="38"/>
-        <v>1.2385714285714284</v>
+        <f t="shared" si="47"/>
+        <v>0.86302932250738573</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="39"/>
-        <v>0.73740777888027742</v>
+        <f t="shared" si="48"/>
+        <v>0.54464167602247304</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
-        <f t="shared" si="37"/>
-        <v>1.8263001124089699</v>
+        <f t="shared" si="46"/>
+        <v>1.2256040579780771</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="38"/>
-        <v>1.3007959183673468</v>
+        <f t="shared" si="47"/>
+        <v>0.91479590811343126</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="39"/>
-        <v>0.73740777888027742</v>
+        <f t="shared" si="48"/>
+        <v>0.54464167602247304</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
-        <f t="shared" si="37"/>
-        <v>1.9934964596032898</v>
+        <f t="shared" si="46"/>
+        <v>1.3488861694038958</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="38"/>
-        <v>1.3539319727891157</v>
+        <f t="shared" si="47"/>
+        <v>0.96075426573145473</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" si="39"/>
-        <v>0.72603903742837472</v>
+        <f t="shared" si="48"/>
+        <v>0.54464167602247304</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="7">
-        <f>$P$22*TAN(RADIANS(B7))/$P$2/$R$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="C116" s="8">
-        <f>P7/$P$2/$R$4/9.8</f>
-        <v>0</v>
-      </c>
-      <c r="D116" s="8">
-        <f>R7/$P$2/$R$4/9.8/$P$21</f>
-        <v>0</v>
+      <c r="B116" s="2">
+        <f t="shared" si="46"/>
+        <v>1.4723756434355144</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="48"/>
+        <v>0.53624484244413395</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="7">
-        <f t="shared" ref="B117:B128" si="40">$P$22*TAN(RADIANS(B8))/$P$2/$R$4/9.8</f>
-        <v>1.7809934266854672E-3</v>
-      </c>
-      <c r="C117" s="8">
-        <f t="shared" ref="C117:C128" si="41">P8/$P$2/$R$4/9.8</f>
-        <v>5.1768707482993202E-3</v>
-      </c>
-      <c r="D117" s="8">
-        <f t="shared" ref="D117:D128" si="42">R8/$P$2/$R$4/9.8/$P$21</f>
-        <v>1.5578231292517005E-5</v>
-      </c>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="7">
-        <f t="shared" si="40"/>
-        <v>3.5622581486158336E-3</v>
-      </c>
-      <c r="C118" s="8">
-        <f t="shared" si="41"/>
-        <v>9.7619047619047616E-3</v>
-      </c>
-      <c r="D118" s="8">
-        <f t="shared" si="42"/>
-        <v>2.8820861678004538E-5</v>
-      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="7">
-        <f t="shared" si="40"/>
-        <v>5.3440656263646791E-3</v>
-      </c>
-      <c r="C119" s="8">
-        <f t="shared" si="41"/>
-        <v>1.35578231292517E-2</v>
-      </c>
-      <c r="D119" s="8">
-        <f t="shared" si="42"/>
-        <v>3.9160997732426298E-5</v>
-      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="7">
-        <f t="shared" si="40"/>
-        <v>7.1266876513770873E-3</v>
-      </c>
-      <c r="C120" s="8">
-        <f t="shared" si="41"/>
-        <v>1.6673469387755102E-2</v>
-      </c>
-      <c r="D120" s="8">
-        <f t="shared" si="42"/>
-        <v>4.7482993197278907E-5</v>
-      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="7">
-        <f t="shared" si="40"/>
-        <v>8.9103965119412352E-3</v>
-      </c>
-      <c r="C121" s="8">
-        <f t="shared" si="41"/>
-        <v>1.9102040816326528E-2</v>
-      </c>
-      <c r="D121" s="8">
-        <f t="shared" si="42"/>
-        <v>5.4172335600907025E-5</v>
-      </c>
+      <c r="B121" s="10"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="7">
-        <f t="shared" si="40"/>
-        <v>1.0695465159804327E-2</v>
-      </c>
-      <c r="C122" s="8">
-        <f t="shared" si="41"/>
-        <v>2.0680272108843534E-2</v>
-      </c>
-      <c r="D122" s="8">
-        <f t="shared" si="42"/>
-        <v>5.8888888888888882E-5</v>
-      </c>
+      <c r="B122" s="10"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="7">
-        <f t="shared" si="40"/>
-        <v>1.2482167377649858E-2</v>
-      </c>
-      <c r="C123" s="8">
-        <f t="shared" si="41"/>
-        <v>2.1775510204081628E-2</v>
-      </c>
-      <c r="D123" s="8">
-        <f t="shared" si="42"/>
-        <v>6.2448979591836734E-5</v>
-      </c>
+      <c r="B123" s="10"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="7">
-        <f t="shared" si="40"/>
-        <v>1.4270777947655185E-2</v>
-      </c>
-      <c r="C124" s="8">
-        <f t="shared" si="41"/>
-        <v>2.2285714285714284E-2</v>
-      </c>
-      <c r="D124" s="8">
-        <f t="shared" si="42"/>
-        <v>6.3718820861678003E-5</v>
-      </c>
+      <c r="B124" s="10"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="7">
-        <f t="shared" si="40"/>
-        <v>1.6061572821350702E-2</v>
-      </c>
-      <c r="C125" s="8">
-        <f t="shared" si="41"/>
-        <v>2.2503401360544215E-2</v>
-      </c>
-      <c r="D125" s="8">
-        <f t="shared" si="42"/>
-        <v>6.4263038548752831E-5</v>
-      </c>
+      <c r="B125" s="10"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="7">
-        <f t="shared" si="40"/>
-        <v>1.7854829291004896E-2</v>
-      </c>
-      <c r="C126" s="8">
-        <f t="shared" si="41"/>
-        <v>2.2503401360544215E-2</v>
-      </c>
-      <c r="D126" s="8">
-        <f t="shared" si="42"/>
-        <v>6.3401360544217689E-5</v>
-      </c>
+      <c r="B126" s="10"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="7">
-        <f t="shared" si="40"/>
-        <v>1.965082616276298E-2</v>
-      </c>
-      <c r="C127" s="8">
-        <f t="shared" si="41"/>
-        <v>2.2503401360544215E-2</v>
-      </c>
-      <c r="D127" s="8">
-        <f t="shared" si="42"/>
-        <v>6.3061224489795905E-5</v>
-      </c>
+      <c r="B127" s="10"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="7">
-        <f t="shared" si="40"/>
-        <v>2.1449843931770705E-2</v>
-      </c>
-      <c r="C128" s="8">
-        <f t="shared" si="41"/>
-        <v>2.2156462585034013E-2</v>
-      </c>
-      <c r="D128" s="8">
-        <f t="shared" si="42"/>
-        <v>6.2766439909297048E-5</v>
-      </c>
+      <c r="B128" s="10"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="10"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
@@ -8853,15 +9311,10 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="W3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D21" formula="1"/>
+    <ignoredError sqref="D22" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>